--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/43_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/43_225-80R17.xlsx
@@ -692,40 +692,40 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2519239080666405</v>
+        <v>0.2127069668866213</v>
       </c>
       <c r="F2">
-        <v>0.1105417061724131</v>
+        <v>0.09863084541182979</v>
       </c>
       <c r="G2">
-        <v>0.01607558873453911</v>
+        <v>0.02240959447844173</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.09823571607917492</v>
+        <v>0.08870159263506186</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.002834380685868628</v>
       </c>
       <c r="K2">
-        <v>0.001288278796568246</v>
+        <v>0.01047825558168749</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.004995991788587114</v>
       </c>
       <c r="M2">
-        <v>0.1887133083069729</v>
+        <v>0.1617046486310822</v>
       </c>
       <c r="N2">
-        <v>0.06395352906195167</v>
+        <v>0.06104055130028296</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.004614461453189832</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00201803711090926</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -737,55 +737,55 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.07205733112879813</v>
+        <v>0.06757921243725445</v>
       </c>
       <c r="U2">
-        <v>0.03910980139689856</v>
+        <v>0.04099505719257693</v>
       </c>
       <c r="V2">
-        <v>0.01649653351302603</v>
+        <v>0.02274923940574862</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.002627297750365359</v>
       </c>
       <c r="X2">
-        <v>0.0001842111647858968</v>
+        <v>0.009587423839133254</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.001393273093452157</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.005764571114115846</v>
       </c>
       <c r="AA2">
-        <v>0.004106352378702024</v>
+        <v>0.01275205596089575</v>
       </c>
       <c r="AB2">
-        <v>0.006687109626234912</v>
+        <v>0.01483437447993228</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.0006946681225420735</v>
       </c>
       <c r="AD2">
-        <v>0.06220513940092288</v>
+        <v>0.05962983970657044</v>
       </c>
       <c r="AE2">
-        <v>0.03919216555082713</v>
+        <v>0.04106151381231295</v>
       </c>
       <c r="AF2">
-        <v>0.008882013534657221</v>
+        <v>0.01660536206909148</v>
       </c>
       <c r="AG2">
-        <v>0.02034730708688681</v>
+        <v>0.02585628759214127</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.006207537190651822</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.001526960269653014</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -802,37 +802,37 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1470035467888445</v>
+        <v>0.1415922569922945</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.003589283571538827</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1077824170375209</v>
+        <v>0.1047785813913718</v>
       </c>
       <c r="I3">
-        <v>0.1666286272486505</v>
+        <v>0.1600127193876931</v>
       </c>
       <c r="J3">
-        <v>0.001366348466393899</v>
+        <v>0.004894497176005506</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.02787175162964317</v>
+        <v>0.02977295733026968</v>
       </c>
       <c r="M3">
-        <v>0.2194743388620453</v>
+        <v>0.2096146787542453</v>
       </c>
       <c r="N3">
-        <v>0.009303284286634421</v>
+        <v>0.01234425148966898</v>
       </c>
       <c r="O3">
-        <v>0.04345810880555499</v>
+        <v>0.04440259957954138</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -847,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.06258260485195705</v>
+        <v>0.06235320421401432</v>
       </c>
       <c r="U3">
-        <v>0.02244175613669052</v>
+        <v>0.02467626343441663</v>
       </c>
       <c r="V3">
-        <v>0.02475619596431839</v>
+        <v>0.02684863933364152</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -877,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.05436714791819319</v>
+        <v>0.05464202484741978</v>
       </c>
       <c r="AE3">
-        <v>0.01931756385925222</v>
+        <v>0.02174383895440429</v>
       </c>
       <c r="AF3">
-        <v>0.03354527519544844</v>
+        <v>0.03509823116582758</v>
       </c>
       <c r="AG3">
-        <v>0.04812347852137905</v>
+        <v>0.04878160162169749</v>
       </c>
       <c r="AH3">
-        <v>0.01197755442747338</v>
+        <v>0.01485437075594935</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -912,43 +912,43 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1591732674828223</v>
+        <v>0.1459032944602688</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1369869115525063</v>
+        <v>0.1263637409743212</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01905906193690854</v>
+        <v>0.02250452532466309</v>
       </c>
       <c r="J4">
-        <v>0.01924669312340637</v>
+        <v>0.02266977236278513</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01216151542146813</v>
+        <v>0.01642984683831916</v>
       </c>
       <c r="M4">
-        <v>0.249702962087949</v>
+        <v>0.2256329181695096</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02373271564944218</v>
+        <v>0.02662061843060957</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.007730799195876559</v>
+        <v>0.01252770910362677</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -957,55 +957,55 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.07998166826895249</v>
+        <v>0.07615914660033236</v>
       </c>
       <c r="U4">
-        <v>0.04992556331790622</v>
+        <v>0.04968869457500695</v>
       </c>
       <c r="V4">
-        <v>0.01337134247220414</v>
+        <v>0.01749534314789116</v>
       </c>
       <c r="W4">
-        <v>0.007570256510285782</v>
+        <v>0.01238631894466009</v>
       </c>
       <c r="X4">
-        <v>0.01862952827928177</v>
+        <v>0.02212623445510462</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.004842417996872356</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.007570256510285782</v>
+        <v>0.01238631894466009</v>
       </c>
       <c r="AB4">
-        <v>0.01445309490627631</v>
+        <v>0.01844804397043702</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.02383303885223687</v>
+        <v>0.02670897321014369</v>
       </c>
       <c r="AE4">
-        <v>0.1083385035335838</v>
+        <v>0.1011330495290401</v>
       </c>
       <c r="AF4">
-        <v>0.01455139626644007</v>
+        <v>0.01853461811044875</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>7.256078375389332E-05</v>
       </c>
       <c r="AH4">
-        <v>0.0201548398828356</v>
+        <v>0.02346957843434962</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.01382658474933202</v>
+        <v>0.01789627563319625</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1019,43 +1019,43 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.001732651403371061</v>
+        <v>0.006686805596322774</v>
       </c>
       <c r="E5">
-        <v>0.1317565768799134</v>
+        <v>0.1227278671165156</v>
       </c>
       <c r="F5">
-        <v>0.2636899213999809</v>
+        <v>0.24047300741979</v>
       </c>
       <c r="G5">
-        <v>0.006079871567435272</v>
+        <v>0.01056652266109488</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0158401314656137</v>
+        <v>0.0192771573781026</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01964223253420466</v>
+        <v>0.02267037783648626</v>
       </c>
       <c r="L5">
-        <v>0.06106641965539912</v>
+        <v>0.05963977887969446</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.002798319033181604</v>
       </c>
       <c r="N5">
-        <v>0.1227470128437885</v>
+        <v>0.1146871979031047</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00393160472035136</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1064,55 +1064,55 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.00153553811205575</v>
+        <v>0.006510890006325497</v>
       </c>
       <c r="T5">
-        <v>0.07998341113433814</v>
+        <v>0.07652242385398848</v>
       </c>
       <c r="U5">
-        <v>0.02258398050245096</v>
+        <v>0.02529576816914282</v>
       </c>
       <c r="V5">
-        <v>0.02741382103853584</v>
+        <v>0.02960620427331705</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.009581952360340876</v>
+        <v>0.01369198723424039</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0003190513073363643</v>
+        <v>0.005425225044068899</v>
       </c>
       <c r="AA5">
-        <v>0.01952276781702894</v>
+        <v>0.02256376043861528</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.0031415661839587</v>
       </c>
       <c r="AD5">
-        <v>0.1221912954536126</v>
+        <v>0.1141912427500442</v>
       </c>
       <c r="AE5">
-        <v>0.05406050268843452</v>
+        <v>0.05338728312716797</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.008800590986042134</v>
+        <v>0.01299465400904977</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.03145227085011734</v>
+        <v>0.03321035636543709</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1132,37 +1132,37 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2021144347836351</v>
+        <v>0.1867706865320108</v>
       </c>
       <c r="F6">
-        <v>0.1005881476466797</v>
+        <v>0.09549714414984097</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.003451895100600371</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.04387018018607364</v>
+        <v>0.04450690356453555</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.001006741114362826</v>
       </c>
       <c r="L6">
-        <v>0.05688072976212152</v>
+        <v>0.05620356835582065</v>
       </c>
       <c r="M6">
-        <v>0.2390287971998784</v>
+        <v>0.2199572111014031</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.002957731339256682</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.002442741628188215</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1177,55 +1177,55 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1478453629174132</v>
+        <v>0.1379820371023241</v>
       </c>
       <c r="U6">
-        <v>0.02877466131322878</v>
+        <v>0.03093582241426343</v>
       </c>
       <c r="V6">
-        <v>0.004369473195813933</v>
+        <v>0.008995219297606495</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.03509716322769319</v>
+        <v>0.03661983945777809</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.005065952712430966</v>
       </c>
       <c r="AA6">
-        <v>0.006018275700335</v>
+        <v>0.01047751565178345</v>
       </c>
       <c r="AB6">
-        <v>0.003769684870234588</v>
+        <v>0.008456001261579549</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.001620549746577602</v>
       </c>
       <c r="AD6">
-        <v>0.07294258316759783</v>
+        <v>0.07064339767375213</v>
       </c>
       <c r="AE6">
-        <v>0.0385816428160815</v>
+        <v>0.03975243500873663</v>
       </c>
       <c r="AF6">
-        <v>0.01575886831947424</v>
+        <v>0.0192344437176266</v>
       </c>
       <c r="AG6">
-        <v>0.002620663834685335</v>
+        <v>0.007423015390198904</v>
       </c>
       <c r="AH6">
-        <v>0.001739331059054118</v>
+        <v>0.006630684982795576</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.003368462696527795</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1239,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2426942120022474</v>
+        <v>0.2274856314961933</v>
       </c>
       <c r="E7">
-        <v>0.1026453173711289</v>
+        <v>0.0988652674613467</v>
       </c>
       <c r="F7">
-        <v>0.08065894392847131</v>
+        <v>0.07867306699129491</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.002058370929388513</v>
+        <v>0.006486604262561357</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.0668370920222371</v>
+        <v>0.06597913157325294</v>
       </c>
       <c r="L7">
-        <v>0.05331441684375684</v>
+        <v>0.05355995890671873</v>
       </c>
       <c r="M7">
-        <v>0.04436289975280728</v>
+        <v>0.04533892017639049</v>
       </c>
       <c r="N7">
-        <v>0.09553954979640085</v>
+        <v>0.09233935795941298</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.007212531687238018</v>
+        <v>0.01122016559994176</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1284,40 +1284,40 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.0828159869276366</v>
+        <v>0.08065408695237505</v>
       </c>
       <c r="T7">
-        <v>0.052456960982543</v>
+        <v>0.0527724747548186</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.001615430215051334</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.001775568777641682</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.01339688408789592</v>
+        <v>0.01689985096402499</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.002206221981601382</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.00246737090452302</v>
       </c>
       <c r="AC7">
-        <v>0.06083767684536218</v>
+        <v>0.06046929184136277</v>
       </c>
       <c r="AD7">
-        <v>0.08075606978242254</v>
+        <v>0.07876226700051531</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.0006898927275959947</v>
+        <v>0.005229799166370358</v>
       </c>
       <c r="AI7">
-        <v>0.01372319431286747</v>
+        <v>0.01719953301460225</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1349,43 +1349,43 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005360819244273097</v>
+        <v>0.01211027514005133</v>
       </c>
       <c r="E8">
-        <v>0.1644565287131067</v>
+        <v>0.1463663152119331</v>
       </c>
       <c r="F8">
-        <v>0.151073547890051</v>
+        <v>0.1350728239187983</v>
       </c>
       <c r="G8">
-        <v>0.08314121075335072</v>
+        <v>0.07774678660923733</v>
       </c>
       <c r="H8">
-        <v>0.003182192577867525</v>
+        <v>0.01027179822572628</v>
       </c>
       <c r="I8">
-        <v>0.02695301632319361</v>
+        <v>0.03033127485114287</v>
       </c>
       <c r="J8">
-        <v>0.002182068503971958</v>
+        <v>0.009427823877266046</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1412916846777896</v>
+        <v>0.1268182064700461</v>
       </c>
       <c r="M8">
-        <v>0.01977649272033685</v>
+        <v>0.0242752244169815</v>
       </c>
       <c r="N8">
-        <v>0.07750521520352811</v>
+        <v>0.07299074103825254</v>
       </c>
       <c r="O8">
-        <v>0.06615693784213755</v>
+        <v>0.06341427423556893</v>
       </c>
       <c r="P8">
-        <v>0.005063433284948954</v>
+        <v>0.01185932015575203</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1397,52 +1397,52 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.04908675069103582</v>
+        <v>0.04900926144267655</v>
       </c>
       <c r="U8">
-        <v>0.0503252465318668</v>
+        <v>0.05005439048978034</v>
       </c>
       <c r="V8">
-        <v>0.01021696918455251</v>
+        <v>0.01620823267236893</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.002498320409464351</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.002388266406065103</v>
       </c>
       <c r="AA8">
-        <v>0.003354967597341072</v>
+        <v>0.010417597820293</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.005525786463799154</v>
       </c>
       <c r="AD8">
-        <v>0.08203622181866618</v>
+        <v>0.07681431998779739</v>
       </c>
       <c r="AE8">
-        <v>0.0588366964419817</v>
+        <v>0.05723694471463865</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.004615876755307937</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>0.0007674972146509127</v>
       </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.003778641472400886</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1459,40 +1459,40 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1940117259056038</v>
+        <v>0.224549329519376</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1720382225504825</v>
+        <v>0.1973733272313717</v>
       </c>
       <c r="G9">
-        <v>0.00927180157523313</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.04457713954488271</v>
+        <v>0.03973425496279871</v>
       </c>
       <c r="I9">
-        <v>0.02374528212449142</v>
+        <v>0.01397019741719166</v>
       </c>
       <c r="J9">
-        <v>0.004958197984675218</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.01244950077427171</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1557682670236019</v>
+        <v>0.1772512583250865</v>
       </c>
       <c r="M9">
-        <v>0.0107342922429261</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1212385442177331</v>
+        <v>0.1345461961958953</v>
       </c>
       <c r="O9">
-        <v>0.004629440362786883</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1504,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.0337648663289962</v>
+        <v>0.02636204221616916</v>
       </c>
       <c r="T9">
-        <v>0.03953479626304831</v>
+        <v>0.03349807448900559</v>
       </c>
       <c r="U9">
-        <v>0.03371760439834581</v>
+        <v>0.0263035904383742</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.03283538591645814</v>
+        <v>0.0252124958097741</v>
       </c>
       <c r="AD9">
-        <v>0.09125345094921811</v>
+        <v>0.09746176090573173</v>
       </c>
       <c r="AE9">
-        <v>0.01547148183724506</v>
+        <v>0.003737472489225472</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1569,43 +1569,43 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1487629731201769</v>
+        <v>0.1538504807131003</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1542845132380301</v>
+        <v>0.1596642341865999</v>
       </c>
       <c r="G10">
-        <v>0.03008772307443428</v>
+        <v>0.02889464729607671</v>
       </c>
       <c r="H10">
-        <v>0.02187922121909153</v>
+        <v>0.02025173152346036</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01746333848398943</v>
+        <v>0.01560214951521648</v>
       </c>
       <c r="K10">
-        <v>0.009202455908526442</v>
+        <v>0.006904080907151424</v>
       </c>
       <c r="L10">
-        <v>0.1479327321819442</v>
+        <v>0.1529763014016279</v>
       </c>
       <c r="M10">
-        <v>0.006015779919183742</v>
+        <v>0.003548758260476117</v>
       </c>
       <c r="N10">
-        <v>0.1726782939221068</v>
+        <v>0.1790314585588497</v>
       </c>
       <c r="O10">
-        <v>0.002645390859327958</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.003933544151251495</v>
+        <v>0.001356325502572323</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1614,13 +1614,13 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.01335498471721197</v>
+        <v>0.01127637165756063</v>
       </c>
       <c r="T10">
-        <v>0.0869139699049179</v>
+        <v>0.08872827755956994</v>
       </c>
       <c r="U10">
-        <v>0.02940002049959808</v>
+        <v>0.02817054982547043</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.006750528239828097</v>
+        <v>0.004322391252380375</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1644,13 +1644,13 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.02484223685993864</v>
+        <v>0.02337155717107449</v>
       </c>
       <c r="AD10">
-        <v>0.1015319663716553</v>
+        <v>0.1041198940144266</v>
       </c>
       <c r="AE10">
-        <v>0.01368553707307506</v>
+        <v>0.01162441764944952</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.008634790255712007</v>
+        <v>0.006306373004936721</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1682,40 +1682,40 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.219030519985311</v>
+        <v>0.1874767773268845</v>
       </c>
       <c r="F11">
-        <v>0.1440630442889255</v>
+        <v>0.1262590159419168</v>
       </c>
       <c r="G11">
-        <v>0.08270120754760174</v>
+        <v>0.07615149604906249</v>
       </c>
       <c r="H11">
-        <v>0.003180728075518872</v>
+        <v>0.0112157930349232</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.008263472450238804</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.003301417528353657</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.007682651997925804</v>
       </c>
       <c r="L11">
-        <v>0.1399012388785599</v>
+        <v>0.1228605233532873</v>
       </c>
       <c r="M11">
-        <v>0.003839780924867571</v>
+        <v>0.01175396962012543</v>
       </c>
       <c r="N11">
-        <v>0.06408479394882746</v>
+        <v>0.06094950138474729</v>
       </c>
       <c r="O11">
-        <v>0.08330271309149115</v>
+        <v>0.0766426800260539</v>
       </c>
       <c r="P11">
-        <v>0.001792426598723408</v>
+        <v>0.01008211862815695</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1727,43 +1727,43 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.05277640679472417</v>
+        <v>0.05171517489825327</v>
       </c>
       <c r="U11">
-        <v>0.05952278769123599</v>
+        <v>0.0572242084104311</v>
       </c>
       <c r="V11">
-        <v>0.00609670544330726</v>
+        <v>0.01359695373223934</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.00375802268334008</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.005336754379508112</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.000919475117589948</v>
       </c>
       <c r="AA11">
-        <v>0.002876642640159113</v>
+        <v>0.01096747962367951</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.006259812806766983</v>
       </c>
       <c r="AD11">
-        <v>0.06637625153783305</v>
+        <v>0.06282068488938651</v>
       </c>
       <c r="AE11">
-        <v>0.06512369579140845</v>
+        <v>0.06179785921607003</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.004635531801567031</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1772,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.005356893143387767</v>
       </c>
       <c r="AJ11">
-        <v>0.005331056761505443</v>
+        <v>0.01297173195610424</v>
       </c>
     </row>
   </sheetData>
@@ -1915,100 +1915,100 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2519239080666405</v>
+        <v>0.2127069668866213</v>
       </c>
       <c r="F2">
-        <v>0.3624656142390536</v>
+        <v>0.3113378122984511</v>
       </c>
       <c r="G2">
-        <v>0.3785412029735927</v>
+        <v>0.3337474067768929</v>
       </c>
       <c r="H2">
-        <v>0.3785412029735927</v>
+        <v>0.3337474067768929</v>
       </c>
       <c r="I2">
-        <v>0.4767769190527676</v>
+        <v>0.4224489994119547</v>
       </c>
       <c r="J2">
-        <v>0.4767769190527676</v>
+        <v>0.4252833800978233</v>
       </c>
       <c r="K2">
-        <v>0.4780651978493359</v>
+        <v>0.4357616356795108</v>
       </c>
       <c r="L2">
-        <v>0.4780651978493359</v>
+        <v>0.4407576274680979</v>
       </c>
       <c r="M2">
-        <v>0.6667785061563087</v>
+        <v>0.6024622760991801</v>
       </c>
       <c r="N2">
-        <v>0.7307320352182605</v>
+        <v>0.6635028273994631</v>
       </c>
       <c r="O2">
-        <v>0.7307320352182605</v>
+        <v>0.6681172888526529</v>
       </c>
       <c r="P2">
-        <v>0.7307320352182605</v>
+        <v>0.6701353259635622</v>
       </c>
       <c r="Q2">
-        <v>0.7307320352182605</v>
+        <v>0.6701353259635622</v>
       </c>
       <c r="R2">
-        <v>0.7307320352182605</v>
+        <v>0.6701353259635622</v>
       </c>
       <c r="S2">
-        <v>0.7307320352182605</v>
+        <v>0.6701353259635622</v>
       </c>
       <c r="T2">
-        <v>0.8027893663470586</v>
+        <v>0.7377145384008166</v>
       </c>
       <c r="U2">
-        <v>0.8418991677439571</v>
+        <v>0.7787095955933935</v>
       </c>
       <c r="V2">
-        <v>0.8583957012569832</v>
+        <v>0.8014588349991421</v>
       </c>
       <c r="W2">
-        <v>0.8583957012569832</v>
+        <v>0.8040861327495075</v>
       </c>
       <c r="X2">
-        <v>0.858579912421769</v>
+        <v>0.8136735565886407</v>
       </c>
       <c r="Y2">
-        <v>0.858579912421769</v>
+        <v>0.8150668296820929</v>
       </c>
       <c r="Z2">
-        <v>0.858579912421769</v>
+        <v>0.8208314007962088</v>
       </c>
       <c r="AA2">
-        <v>0.8626862648004711</v>
+        <v>0.8335834567571045</v>
       </c>
       <c r="AB2">
-        <v>0.8693733744267059</v>
+        <v>0.8484178312370368</v>
       </c>
       <c r="AC2">
-        <v>0.8693733744267059</v>
+        <v>0.8491124993595789</v>
       </c>
       <c r="AD2">
-        <v>0.9315785138276288</v>
+        <v>0.9087423390661493</v>
       </c>
       <c r="AE2">
-        <v>0.970770679378456</v>
+        <v>0.9498038528784623</v>
       </c>
       <c r="AF2">
-        <v>0.9796526929131132</v>
+        <v>0.9664092149475537</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.992265502539695</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9984730397303468</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9984730397303468</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2025,91 +2025,91 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1470035467888445</v>
+        <v>0.1415922569922945</v>
       </c>
       <c r="F3">
-        <v>0.1470035467888445</v>
+        <v>0.1451815405638333</v>
       </c>
       <c r="G3">
-        <v>0.1470035467888445</v>
+        <v>0.1451815405638333</v>
       </c>
       <c r="H3">
-        <v>0.2547859638263654</v>
+        <v>0.2499601219552051</v>
       </c>
       <c r="I3">
-        <v>0.4214145910750159</v>
+        <v>0.4099728413428982</v>
       </c>
       <c r="J3">
-        <v>0.4227809395414098</v>
+        <v>0.4148673385189037</v>
       </c>
       <c r="K3">
-        <v>0.4227809395414098</v>
+        <v>0.4148673385189037</v>
       </c>
       <c r="L3">
-        <v>0.450652691171053</v>
+        <v>0.4446402958491734</v>
       </c>
       <c r="M3">
-        <v>0.6701270300330983</v>
+        <v>0.6542549746034187</v>
       </c>
       <c r="N3">
-        <v>0.6794303143197327</v>
+        <v>0.6665992260930877</v>
       </c>
       <c r="O3">
-        <v>0.7228884231252877</v>
+        <v>0.7110018256726292</v>
       </c>
       <c r="P3">
-        <v>0.7228884231252877</v>
+        <v>0.7110018256726292</v>
       </c>
       <c r="Q3">
-        <v>0.7228884231252877</v>
+        <v>0.7110018256726292</v>
       </c>
       <c r="R3">
-        <v>0.7228884231252877</v>
+        <v>0.7110018256726292</v>
       </c>
       <c r="S3">
-        <v>0.7228884231252877</v>
+        <v>0.7110018256726292</v>
       </c>
       <c r="T3">
-        <v>0.7854710279772448</v>
+        <v>0.7733550298866435</v>
       </c>
       <c r="U3">
-        <v>0.8079127841139353</v>
+        <v>0.7980312933210602</v>
       </c>
       <c r="V3">
-        <v>0.8326689800782537</v>
+        <v>0.8248799326547017</v>
       </c>
       <c r="W3">
-        <v>0.8326689800782537</v>
+        <v>0.8248799326547017</v>
       </c>
       <c r="X3">
-        <v>0.8326689800782537</v>
+        <v>0.8248799326547017</v>
       </c>
       <c r="Y3">
-        <v>0.8326689800782537</v>
+        <v>0.8248799326547017</v>
       </c>
       <c r="Z3">
-        <v>0.8326689800782537</v>
+        <v>0.8248799326547017</v>
       </c>
       <c r="AA3">
-        <v>0.8326689800782537</v>
+        <v>0.8248799326547017</v>
       </c>
       <c r="AB3">
-        <v>0.8326689800782537</v>
+        <v>0.8248799326547017</v>
       </c>
       <c r="AC3">
-        <v>0.8326689800782537</v>
+        <v>0.8248799326547017</v>
       </c>
       <c r="AD3">
-        <v>0.8870361279964469</v>
+        <v>0.8795219575021215</v>
       </c>
       <c r="AE3">
-        <v>0.9063536918556991</v>
+        <v>0.9012657964565257</v>
       </c>
       <c r="AF3">
-        <v>0.9398989670511476</v>
+        <v>0.9363640276223533</v>
       </c>
       <c r="AG3">
-        <v>0.9880224455725266</v>
+        <v>0.9851456292440508</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2135,97 +2135,97 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1591732674828223</v>
+        <v>0.1459032944602688</v>
       </c>
       <c r="F4">
-        <v>0.1591732674828223</v>
+        <v>0.1459032944602688</v>
       </c>
       <c r="G4">
-        <v>0.2961601790353286</v>
+        <v>0.27226703543459</v>
       </c>
       <c r="H4">
-        <v>0.2961601790353286</v>
+        <v>0.27226703543459</v>
       </c>
       <c r="I4">
-        <v>0.3152192409722371</v>
+        <v>0.294771560759253</v>
       </c>
       <c r="J4">
-        <v>0.3344659340956435</v>
+        <v>0.3174413331220381</v>
       </c>
       <c r="K4">
-        <v>0.3344659340956435</v>
+        <v>0.3174413331220381</v>
       </c>
       <c r="L4">
-        <v>0.3466274495171117</v>
+        <v>0.3338711799603573</v>
       </c>
       <c r="M4">
-        <v>0.5963304116050607</v>
+        <v>0.5595040981298669</v>
       </c>
       <c r="N4">
-        <v>0.5963304116050607</v>
+        <v>0.5595040981298669</v>
       </c>
       <c r="O4">
-        <v>0.6200631272545029</v>
+        <v>0.5861247165604765</v>
       </c>
       <c r="P4">
-        <v>0.6200631272545029</v>
+        <v>0.5861247165604765</v>
       </c>
       <c r="Q4">
-        <v>0.6277939264503795</v>
+        <v>0.5986524256641033</v>
       </c>
       <c r="R4">
-        <v>0.6277939264503795</v>
+        <v>0.5986524256641033</v>
       </c>
       <c r="S4">
-        <v>0.6277939264503795</v>
+        <v>0.5986524256641033</v>
       </c>
       <c r="T4">
-        <v>0.7077755947193319</v>
+        <v>0.6748115722644357</v>
       </c>
       <c r="U4">
-        <v>0.7577011580372381</v>
+        <v>0.7245002668394426</v>
       </c>
       <c r="V4">
-        <v>0.7710725005094423</v>
+        <v>0.7419956099873337</v>
       </c>
       <c r="W4">
-        <v>0.7786427570197281</v>
+        <v>0.7543819289319939</v>
       </c>
       <c r="X4">
-        <v>0.7972722852990098</v>
+        <v>0.7765081633870985</v>
       </c>
       <c r="Y4">
-        <v>0.7972722852990098</v>
+        <v>0.7813505813839708</v>
       </c>
       <c r="Z4">
-        <v>0.7972722852990098</v>
+        <v>0.7813505813839708</v>
       </c>
       <c r="AA4">
-        <v>0.8048425418092956</v>
+        <v>0.793736900328631</v>
       </c>
       <c r="AB4">
-        <v>0.8192956367155719</v>
+        <v>0.812184944299068</v>
       </c>
       <c r="AC4">
-        <v>0.8192956367155719</v>
+        <v>0.812184944299068</v>
       </c>
       <c r="AD4">
-        <v>0.8431286755678088</v>
+        <v>0.8388939175092116</v>
       </c>
       <c r="AE4">
-        <v>0.9514671791013927</v>
+        <v>0.9400269670382516</v>
       </c>
       <c r="AF4">
-        <v>0.9660185753678328</v>
+        <v>0.9585615851487004</v>
       </c>
       <c r="AG4">
-        <v>0.9660185753678328</v>
+        <v>0.9586341459324542</v>
       </c>
       <c r="AH4">
-        <v>0.9861734152506684</v>
+        <v>0.9821037243668038</v>
       </c>
       <c r="AI4">
-        <v>0.9861734152506684</v>
+        <v>0.9821037243668038</v>
       </c>
       <c r="AJ4">
         <v>1</v>
@@ -2242,97 +2242,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.001732651403371061</v>
+        <v>0.006686805596322774</v>
       </c>
       <c r="E5">
-        <v>0.1334892282832844</v>
+        <v>0.1294146727128384</v>
       </c>
       <c r="F5">
-        <v>0.3971791496832653</v>
+        <v>0.3698876801326284</v>
       </c>
       <c r="G5">
-        <v>0.4032590212507006</v>
+        <v>0.3804542027937233</v>
       </c>
       <c r="H5">
-        <v>0.4032590212507006</v>
+        <v>0.3804542027937233</v>
       </c>
       <c r="I5">
-        <v>0.4190991527163143</v>
+        <v>0.3997313601718259</v>
       </c>
       <c r="J5">
-        <v>0.4190991527163143</v>
+        <v>0.3997313601718259</v>
       </c>
       <c r="K5">
-        <v>0.4387413852505189</v>
+        <v>0.4224017380083121</v>
       </c>
       <c r="L5">
-        <v>0.499807804905918</v>
+        <v>0.4820415168880066</v>
       </c>
       <c r="M5">
-        <v>0.499807804905918</v>
+        <v>0.4848398359211882</v>
       </c>
       <c r="N5">
-        <v>0.6225548177497066</v>
+        <v>0.5995270338242928</v>
       </c>
       <c r="O5">
-        <v>0.6225548177497066</v>
+        <v>0.5995270338242928</v>
       </c>
       <c r="P5">
-        <v>0.6225548177497066</v>
+        <v>0.6034586385446442</v>
       </c>
       <c r="Q5">
-        <v>0.6225548177497066</v>
+        <v>0.6034586385446442</v>
       </c>
       <c r="R5">
-        <v>0.6225548177497066</v>
+        <v>0.6034586385446442</v>
       </c>
       <c r="S5">
-        <v>0.6240903558617623</v>
+        <v>0.6099695285509698</v>
       </c>
       <c r="T5">
-        <v>0.7040737669961005</v>
+        <v>0.6864919524049582</v>
       </c>
       <c r="U5">
-        <v>0.7266577474985514</v>
+        <v>0.711787720574101</v>
       </c>
       <c r="V5">
-        <v>0.7540715685370872</v>
+        <v>0.7413939248474181</v>
       </c>
       <c r="W5">
-        <v>0.7540715685370872</v>
+        <v>0.7413939248474181</v>
       </c>
       <c r="X5">
-        <v>0.7636535208974281</v>
+        <v>0.7550859120816584</v>
       </c>
       <c r="Y5">
-        <v>0.7636535208974281</v>
+        <v>0.7550859120816584</v>
       </c>
       <c r="Z5">
-        <v>0.7639725722047644</v>
+        <v>0.7605111371257274</v>
       </c>
       <c r="AA5">
-        <v>0.7834953400217934</v>
+        <v>0.7830748975643427</v>
       </c>
       <c r="AB5">
-        <v>0.7834953400217934</v>
+        <v>0.7830748975643427</v>
       </c>
       <c r="AC5">
-        <v>0.7834953400217934</v>
+        <v>0.7862164637483013</v>
       </c>
       <c r="AD5">
-        <v>0.9056866354754061</v>
+        <v>0.9004077064983455</v>
       </c>
       <c r="AE5">
-        <v>0.9597471381638406</v>
+        <v>0.9537949896255135</v>
       </c>
       <c r="AF5">
-        <v>0.9597471381638406</v>
+        <v>0.9537949896255135</v>
       </c>
       <c r="AG5">
-        <v>0.9685477291498827</v>
+        <v>0.9667896436345632</v>
       </c>
       <c r="AH5">
-        <v>0.9685477291498827</v>
+        <v>0.9667896436345632</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2355,97 +2355,97 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2021144347836351</v>
+        <v>0.1867706865320108</v>
       </c>
       <c r="F6">
-        <v>0.3027025824303148</v>
+        <v>0.2822678306818517</v>
       </c>
       <c r="G6">
-        <v>0.3027025824303148</v>
+        <v>0.2857197257824521</v>
       </c>
       <c r="H6">
-        <v>0.3027025824303148</v>
+        <v>0.2857197257824521</v>
       </c>
       <c r="I6">
-        <v>0.3465727626163885</v>
+        <v>0.3302266293469877</v>
       </c>
       <c r="J6">
-        <v>0.3465727626163885</v>
+        <v>0.3302266293469877</v>
       </c>
       <c r="K6">
-        <v>0.3465727626163885</v>
+        <v>0.3312333704613505</v>
       </c>
       <c r="L6">
-        <v>0.40345349237851</v>
+        <v>0.3874369388171711</v>
       </c>
       <c r="M6">
-        <v>0.6424822895783885</v>
+        <v>0.6073941499185742</v>
       </c>
       <c r="N6">
-        <v>0.6424822895783885</v>
+        <v>0.6103518812578309</v>
       </c>
       <c r="O6">
-        <v>0.6424822895783885</v>
+        <v>0.6127946228860192</v>
       </c>
       <c r="P6">
-        <v>0.6424822895783885</v>
+        <v>0.6127946228860192</v>
       </c>
       <c r="Q6">
-        <v>0.6424822895783885</v>
+        <v>0.6127946228860192</v>
       </c>
       <c r="R6">
-        <v>0.6424822895783885</v>
+        <v>0.6127946228860192</v>
       </c>
       <c r="S6">
-        <v>0.6424822895783885</v>
+        <v>0.6127946228860192</v>
       </c>
       <c r="T6">
-        <v>0.7903276524958017</v>
+        <v>0.7507766599883432</v>
       </c>
       <c r="U6">
-        <v>0.8191023138090305</v>
+        <v>0.7817124824026066</v>
       </c>
       <c r="V6">
-        <v>0.8234717870048445</v>
+        <v>0.7907077017002131</v>
       </c>
       <c r="W6">
-        <v>0.8234717870048445</v>
+        <v>0.7907077017002131</v>
       </c>
       <c r="X6">
-        <v>0.8585689502325377</v>
+        <v>0.8273275411579912</v>
       </c>
       <c r="Y6">
-        <v>0.8585689502325377</v>
+        <v>0.8273275411579912</v>
       </c>
       <c r="Z6">
-        <v>0.8585689502325377</v>
+        <v>0.8323934938704222</v>
       </c>
       <c r="AA6">
-        <v>0.8645872259328726</v>
+        <v>0.8428710095222056</v>
       </c>
       <c r="AB6">
-        <v>0.8683569108031072</v>
+        <v>0.8513270107837851</v>
       </c>
       <c r="AC6">
-        <v>0.8683569108031072</v>
+        <v>0.8529475605303627</v>
       </c>
       <c r="AD6">
-        <v>0.941299493970705</v>
+        <v>0.9235909582041149</v>
       </c>
       <c r="AE6">
-        <v>0.9798811367867865</v>
+        <v>0.9633433932128515</v>
       </c>
       <c r="AF6">
-        <v>0.9956400051062607</v>
+        <v>0.9825778369304781</v>
       </c>
       <c r="AG6">
-        <v>0.998260668940946</v>
+        <v>0.9900008523206769</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9966315373034725</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9966315373034725</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2426942120022474</v>
+        <v>0.2274856314961933</v>
       </c>
       <c r="E7">
-        <v>0.3453395293733763</v>
+        <v>0.32635089895754</v>
       </c>
       <c r="F7">
-        <v>0.4259984733018476</v>
+        <v>0.4050239659488349</v>
       </c>
       <c r="G7">
-        <v>0.4259984733018476</v>
+        <v>0.4050239659488349</v>
       </c>
       <c r="H7">
-        <v>0.4280568442312361</v>
+        <v>0.4115105702113963</v>
       </c>
       <c r="I7">
-        <v>0.4280568442312361</v>
+        <v>0.4115105702113963</v>
       </c>
       <c r="J7">
-        <v>0.4280568442312361</v>
+        <v>0.4115105702113963</v>
       </c>
       <c r="K7">
-        <v>0.4948939362534732</v>
+        <v>0.4774897017846492</v>
       </c>
       <c r="L7">
-        <v>0.54820835309723</v>
+        <v>0.5310496606913679</v>
       </c>
       <c r="M7">
-        <v>0.5925712528500373</v>
+        <v>0.5763885808677585</v>
       </c>
       <c r="N7">
-        <v>0.6881108026464382</v>
+        <v>0.6687279388271714</v>
       </c>
       <c r="O7">
-        <v>0.6881108026464382</v>
+        <v>0.6687279388271714</v>
       </c>
       <c r="P7">
-        <v>0.6953233343336762</v>
+        <v>0.6799481044271132</v>
       </c>
       <c r="Q7">
-        <v>0.6953233343336762</v>
+        <v>0.6799481044271132</v>
       </c>
       <c r="R7">
-        <v>0.6953233343336762</v>
+        <v>0.6799481044271132</v>
       </c>
       <c r="S7">
-        <v>0.7781393212613128</v>
+        <v>0.7606021913794883</v>
       </c>
       <c r="T7">
-        <v>0.8305962822438558</v>
+        <v>0.8133746661343069</v>
       </c>
       <c r="U7">
-        <v>0.8305962822438558</v>
+        <v>0.8149900963493582</v>
       </c>
       <c r="V7">
-        <v>0.8305962822438558</v>
+        <v>0.8167656651269999</v>
       </c>
       <c r="W7">
-        <v>0.8305962822438558</v>
+        <v>0.8167656651269999</v>
       </c>
       <c r="X7">
-        <v>0.8439931663317518</v>
+        <v>0.8336655160910249</v>
       </c>
       <c r="Y7">
-        <v>0.8439931663317518</v>
+        <v>0.8336655160910249</v>
       </c>
       <c r="Z7">
-        <v>0.8439931663317518</v>
+        <v>0.8358717380726263</v>
       </c>
       <c r="AA7">
-        <v>0.8439931663317518</v>
+        <v>0.8358717380726263</v>
       </c>
       <c r="AB7">
-        <v>0.8439931663317518</v>
+        <v>0.8383391089771492</v>
       </c>
       <c r="AC7">
-        <v>0.904830843177114</v>
+        <v>0.898808400818512</v>
       </c>
       <c r="AD7">
-        <v>0.9855869129595366</v>
+        <v>0.9775706678190272</v>
       </c>
       <c r="AE7">
-        <v>0.9855869129595366</v>
+        <v>0.9775706678190272</v>
       </c>
       <c r="AF7">
-        <v>0.9855869129595366</v>
+        <v>0.9775706678190272</v>
       </c>
       <c r="AG7">
-        <v>0.9855869129595366</v>
+        <v>0.9775706678190272</v>
       </c>
       <c r="AH7">
-        <v>0.9862768056871326</v>
+        <v>0.9828004669853976</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005360819244273097</v>
+        <v>0.01211027514005133</v>
       </c>
       <c r="E8">
-        <v>0.1698173479573798</v>
+        <v>0.1584765903519845</v>
       </c>
       <c r="F8">
-        <v>0.3208908958474308</v>
+        <v>0.2935494142707827</v>
       </c>
       <c r="G8">
-        <v>0.4040321066007815</v>
+        <v>0.3712962008800201</v>
       </c>
       <c r="H8">
-        <v>0.407214299178649</v>
+        <v>0.3815679991057463</v>
       </c>
       <c r="I8">
-        <v>0.4341673155018426</v>
+        <v>0.4118992739568892</v>
       </c>
       <c r="J8">
-        <v>0.4363493840058146</v>
+        <v>0.4213270978341553</v>
       </c>
       <c r="K8">
-        <v>0.4363493840058146</v>
+        <v>0.4213270978341553</v>
       </c>
       <c r="L8">
-        <v>0.5776410686836042</v>
+        <v>0.5481453043042014</v>
       </c>
       <c r="M8">
-        <v>0.5974175614039411</v>
+        <v>0.5724205287211829</v>
       </c>
       <c r="N8">
-        <v>0.6749227766074692</v>
+        <v>0.6454112697594354</v>
       </c>
       <c r="O8">
-        <v>0.7410797144496069</v>
+        <v>0.7088255439950043</v>
       </c>
       <c r="P8">
-        <v>0.7461431477345558</v>
+        <v>0.7206848641507564</v>
       </c>
       <c r="Q8">
-        <v>0.7461431477345558</v>
+        <v>0.7206848641507564</v>
       </c>
       <c r="R8">
-        <v>0.7461431477345558</v>
+        <v>0.7206848641507564</v>
       </c>
       <c r="S8">
-        <v>0.7461431477345558</v>
+        <v>0.7206848641507564</v>
       </c>
       <c r="T8">
-        <v>0.7952298984255917</v>
+        <v>0.769694125593433</v>
       </c>
       <c r="U8">
-        <v>0.8455551449574584</v>
+        <v>0.8197485160832133</v>
       </c>
       <c r="V8">
-        <v>0.8557721141420109</v>
+        <v>0.8359567487555822</v>
       </c>
       <c r="W8">
-        <v>0.8557721141420109</v>
+        <v>0.8359567487555822</v>
       </c>
       <c r="X8">
-        <v>0.8557721141420109</v>
+        <v>0.8384550691650466</v>
       </c>
       <c r="Y8">
-        <v>0.8557721141420109</v>
+        <v>0.8384550691650466</v>
       </c>
       <c r="Z8">
-        <v>0.8557721141420109</v>
+        <v>0.8408433355711118</v>
       </c>
       <c r="AA8">
-        <v>0.859127081739352</v>
+        <v>0.8512609333914047</v>
       </c>
       <c r="AB8">
-        <v>0.859127081739352</v>
+        <v>0.8512609333914047</v>
       </c>
       <c r="AC8">
-        <v>0.859127081739352</v>
+        <v>0.8567867198552039</v>
       </c>
       <c r="AD8">
-        <v>0.9411633035580182</v>
+        <v>0.9336010398430014</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0.9908379845576401</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.995453861312948</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.9962213585275989</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9962213585275989</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,85 +2682,85 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1940117259056038</v>
+        <v>0.224549329519376</v>
       </c>
       <c r="E9">
-        <v>0.1940117259056038</v>
+        <v>0.224549329519376</v>
       </c>
       <c r="F9">
-        <v>0.3660499484560863</v>
+        <v>0.4219226567507476</v>
       </c>
       <c r="G9">
-        <v>0.3753217500313194</v>
+        <v>0.4219226567507476</v>
       </c>
       <c r="H9">
-        <v>0.4198988895762021</v>
+        <v>0.4616569117135463</v>
       </c>
       <c r="I9">
-        <v>0.4436441717006935</v>
+        <v>0.475627109130738</v>
       </c>
       <c r="J9">
-        <v>0.4486023696853688</v>
+        <v>0.475627109130738</v>
       </c>
       <c r="K9">
-        <v>0.4610518704596405</v>
+        <v>0.475627109130738</v>
       </c>
       <c r="L9">
-        <v>0.6168201374832424</v>
+        <v>0.6528783674558245</v>
       </c>
       <c r="M9">
-        <v>0.6275544297261685</v>
+        <v>0.6528783674558245</v>
       </c>
       <c r="N9">
-        <v>0.7487929739439017</v>
+        <v>0.7874245636517199</v>
       </c>
       <c r="O9">
-        <v>0.7534224143066885</v>
+        <v>0.7874245636517199</v>
       </c>
       <c r="P9">
-        <v>0.7534224143066885</v>
+        <v>0.7874245636517199</v>
       </c>
       <c r="Q9">
-        <v>0.7534224143066885</v>
+        <v>0.7874245636517199</v>
       </c>
       <c r="R9">
-        <v>0.7534224143066885</v>
+        <v>0.7874245636517199</v>
       </c>
       <c r="S9">
-        <v>0.7871872806356848</v>
+        <v>0.813786605867889</v>
       </c>
       <c r="T9">
-        <v>0.8267220768987331</v>
+        <v>0.8472846803568945</v>
       </c>
       <c r="U9">
-        <v>0.8604396812970789</v>
+        <v>0.8735882707952687</v>
       </c>
       <c r="V9">
-        <v>0.8604396812970789</v>
+        <v>0.8735882707952687</v>
       </c>
       <c r="W9">
-        <v>0.8604396812970789</v>
+        <v>0.8735882707952687</v>
       </c>
       <c r="X9">
-        <v>0.8604396812970789</v>
+        <v>0.8735882707952687</v>
       </c>
       <c r="Y9">
-        <v>0.8604396812970789</v>
+        <v>0.8735882707952687</v>
       </c>
       <c r="Z9">
-        <v>0.8604396812970789</v>
+        <v>0.8735882707952687</v>
       </c>
       <c r="AA9">
-        <v>0.8604396812970789</v>
+        <v>0.8735882707952687</v>
       </c>
       <c r="AB9">
-        <v>0.8604396812970789</v>
+        <v>0.8735882707952687</v>
       </c>
       <c r="AC9">
-        <v>0.8932750672135371</v>
+        <v>0.8988007666050428</v>
       </c>
       <c r="AD9">
-        <v>0.9845285181627552</v>
+        <v>0.9962625275107746</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -2792,103 +2792,103 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1487629731201769</v>
+        <v>0.1538504807131003</v>
       </c>
       <c r="E10">
-        <v>0.1487629731201769</v>
+        <v>0.1538504807131003</v>
       </c>
       <c r="F10">
-        <v>0.303047486358207</v>
+        <v>0.3135147148997002</v>
       </c>
       <c r="G10">
-        <v>0.3331352094326413</v>
+        <v>0.3424093621957769</v>
       </c>
       <c r="H10">
-        <v>0.3550144306517328</v>
+        <v>0.3626610937192373</v>
       </c>
       <c r="I10">
-        <v>0.3550144306517328</v>
+        <v>0.3626610937192373</v>
       </c>
       <c r="J10">
-        <v>0.3724777691357223</v>
+        <v>0.3782632432344538</v>
       </c>
       <c r="K10">
-        <v>0.3816802250442487</v>
+        <v>0.3851673241416052</v>
       </c>
       <c r="L10">
-        <v>0.5296129572261928</v>
+        <v>0.538143625543233</v>
       </c>
       <c r="M10">
-        <v>0.5356287371453766</v>
+        <v>0.5416923838037091</v>
       </c>
       <c r="N10">
-        <v>0.7083070310674834</v>
+        <v>0.7207238423625588</v>
       </c>
       <c r="O10">
-        <v>0.7109524219268113</v>
+        <v>0.7207238423625588</v>
       </c>
       <c r="P10">
-        <v>0.7148859660780628</v>
+        <v>0.7220801678651312</v>
       </c>
       <c r="Q10">
-        <v>0.7148859660780628</v>
+        <v>0.7220801678651312</v>
       </c>
       <c r="R10">
-        <v>0.7148859660780628</v>
+        <v>0.7220801678651312</v>
       </c>
       <c r="S10">
-        <v>0.7282409507952747</v>
+        <v>0.7333565395226919</v>
       </c>
       <c r="T10">
-        <v>0.8151549207001927</v>
+        <v>0.8220848170822618</v>
       </c>
       <c r="U10">
-        <v>0.8445549411997908</v>
+        <v>0.8502553669077322</v>
       </c>
       <c r="V10">
-        <v>0.8445549411997908</v>
+        <v>0.8502553669077322</v>
       </c>
       <c r="W10">
-        <v>0.8445549411997908</v>
+        <v>0.8502553669077322</v>
       </c>
       <c r="X10">
-        <v>0.8445549411997908</v>
+        <v>0.8502553669077322</v>
       </c>
       <c r="Y10">
-        <v>0.8445549411997908</v>
+        <v>0.8502553669077322</v>
       </c>
       <c r="Z10">
-        <v>0.8513054694396189</v>
+        <v>0.8545777581601126</v>
       </c>
       <c r="AA10">
-        <v>0.8513054694396189</v>
+        <v>0.8545777581601126</v>
       </c>
       <c r="AB10">
-        <v>0.8513054694396189</v>
+        <v>0.8545777581601126</v>
       </c>
       <c r="AC10">
-        <v>0.8761477062995575</v>
+        <v>0.8779493153311871</v>
       </c>
       <c r="AD10">
-        <v>0.9776796726712128</v>
+        <v>0.9820692093456137</v>
       </c>
       <c r="AE10">
-        <v>0.9913652097442879</v>
+        <v>0.9936936269950633</v>
       </c>
       <c r="AF10">
-        <v>0.9913652097442879</v>
+        <v>0.9936936269950633</v>
       </c>
       <c r="AG10">
-        <v>0.9913652097442879</v>
+        <v>0.9936936269950633</v>
       </c>
       <c r="AH10">
-        <v>0.9913652097442879</v>
+        <v>0.9936936269950633</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2905,97 +2905,97 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.219030519985311</v>
+        <v>0.1874767773268845</v>
       </c>
       <c r="F11">
-        <v>0.3630935642742364</v>
+        <v>0.3137357932688012</v>
       </c>
       <c r="G11">
-        <v>0.4457947718218382</v>
+        <v>0.3898872893178638</v>
       </c>
       <c r="H11">
-        <v>0.4489754998973571</v>
+        <v>0.401103082352787</v>
       </c>
       <c r="I11">
-        <v>0.4489754998973571</v>
+        <v>0.4093665548030258</v>
       </c>
       <c r="J11">
-        <v>0.4489754998973571</v>
+        <v>0.4126679723313794</v>
       </c>
       <c r="K11">
-        <v>0.4489754998973571</v>
+        <v>0.4203506243293052</v>
       </c>
       <c r="L11">
-        <v>0.5888767387759171</v>
+        <v>0.5432111476825925</v>
       </c>
       <c r="M11">
-        <v>0.5927165197007846</v>
+        <v>0.5549651173027179</v>
       </c>
       <c r="N11">
-        <v>0.6568013136496121</v>
+        <v>0.6159146186874652</v>
       </c>
       <c r="O11">
-        <v>0.7401040267411033</v>
+        <v>0.6925572987135191</v>
       </c>
       <c r="P11">
-        <v>0.7418964533398267</v>
+        <v>0.7026394173416761</v>
       </c>
       <c r="Q11">
-        <v>0.7418964533398267</v>
+        <v>0.7026394173416761</v>
       </c>
       <c r="R11">
-        <v>0.7418964533398267</v>
+        <v>0.7026394173416761</v>
       </c>
       <c r="S11">
-        <v>0.7418964533398267</v>
+        <v>0.7026394173416761</v>
       </c>
       <c r="T11">
-        <v>0.7946728601345509</v>
+        <v>0.7543545922399294</v>
       </c>
       <c r="U11">
-        <v>0.8541956478257868</v>
+        <v>0.8115788006503605</v>
       </c>
       <c r="V11">
-        <v>0.860292353269094</v>
+        <v>0.8251757543825998</v>
       </c>
       <c r="W11">
-        <v>0.860292353269094</v>
+        <v>0.8251757543825998</v>
       </c>
       <c r="X11">
-        <v>0.860292353269094</v>
+        <v>0.82893377706594</v>
       </c>
       <c r="Y11">
-        <v>0.860292353269094</v>
+        <v>0.834270531445448</v>
       </c>
       <c r="Z11">
-        <v>0.860292353269094</v>
+        <v>0.835190006563038</v>
       </c>
       <c r="AA11">
-        <v>0.8631689959092531</v>
+        <v>0.8461574861867175</v>
       </c>
       <c r="AB11">
-        <v>0.8631689959092531</v>
+        <v>0.8461574861867175</v>
       </c>
       <c r="AC11">
-        <v>0.8631689959092531</v>
+        <v>0.8524172989934845</v>
       </c>
       <c r="AD11">
-        <v>0.9295452474470862</v>
+        <v>0.915237983882871</v>
       </c>
       <c r="AE11">
-        <v>0.9946689432384946</v>
+        <v>0.9770358430989411</v>
       </c>
       <c r="AF11">
-        <v>0.9946689432384946</v>
+        <v>0.9816713749005082</v>
       </c>
       <c r="AG11">
-        <v>0.9946689432384946</v>
+        <v>0.9816713749005082</v>
       </c>
       <c r="AH11">
-        <v>0.9946689432384946</v>
+        <v>0.9816713749005082</v>
       </c>
       <c r="AI11">
-        <v>0.9946689432384946</v>
+        <v>0.9870282680438959</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6667785061563087</v>
+        <v>0.6024622760991801</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6701270300330983</v>
+        <v>0.6542549746034187</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5963304116050607</v>
+        <v>0.5595040981298669</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6225548177497066</v>
+        <v>0.5995270338242928</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6424822895783885</v>
+        <v>0.6073941499185742</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.54820835309723</v>
+        <v>0.5310496606913679</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5776410686836042</v>
+        <v>0.5481453043042014</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6168201374832424</v>
+        <v>0.6528783674558245</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5296129572261928</v>
+        <v>0.538143625543233</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5888767387759171</v>
+        <v>0.5432111476825925</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -3530,16 +3530,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7307320352182605</v>
+        <v>0.7377145384008166</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7228884231252877</v>
+        <v>0.7110018256726292</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -3612,16 +3612,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7077755947193319</v>
+        <v>0.7245002668394426</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -3653,16 +3653,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7040737669961005</v>
+        <v>0.711787720574101</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7903276524958017</v>
+        <v>0.7507766599883432</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7781393212613128</v>
+        <v>0.7606021913794883</v>
       </c>
       <c r="G7">
         <v>17</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7410797144496069</v>
+        <v>0.7088255439950043</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7487929739439017</v>
+        <v>0.7874245636517199</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7083070310674834</v>
+        <v>0.7207238423625588</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -3899,16 +3899,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7401040267411033</v>
+        <v>0.7026394173416761</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>43</v>
@@ -3994,16 +3994,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8014588349991421</v>
+      </c>
+      <c r="G2">
         <v>19</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8027893663470586</v>
-      </c>
-      <c r="G2">
-        <v>17</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -4035,16 +4035,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8079127841139353</v>
+        <v>0.8248799326547017</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -4076,16 +4076,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8048425418092956</v>
+        <v>0.812184944299068</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9056866354754061</v>
+        <v>0.9004077064983455</v>
       </c>
       <c r="G5">
         <v>27</v>
@@ -4158,16 +4158,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8191023138090305</v>
+        <v>0.8273275411579912</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8305962822438558</v>
+        <v>0.8133746661343069</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8455551449574584</v>
+        <v>0.8197485160832133</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -4281,16 +4281,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8267220768987331</v>
+        <v>0.813786605867889</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>43</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8151549207001927</v>
+        <v>0.8220848170822618</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8541956478257868</v>
+        <v>0.8115788006503605</v>
       </c>
       <c r="G11">
         <v>18</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9315785138276288</v>
+        <v>0.9087423390661493</v>
       </c>
       <c r="G2">
         <v>27</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9063536918556991</v>
+        <v>0.9012657964565257</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9514671791013927</v>
+        <v>0.9400269670382516</v>
       </c>
       <c r="G4">
         <v>28</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9056866354754061</v>
+        <v>0.9004077064983455</v>
       </c>
       <c r="G5">
         <v>27</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.941299493970705</v>
+        <v>0.9235909582041149</v>
       </c>
       <c r="G6">
         <v>27</v>
@@ -4663,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.9775706678190272</v>
+      </c>
+      <c r="G7">
         <v>28</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.904830843177114</v>
-      </c>
-      <c r="G7">
-        <v>27</v>
       </c>
       <c r="H7">
         <v>43</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9411633035580182</v>
+        <v>0.9336010398430014</v>
       </c>
       <c r="G8">
         <v>27</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9845285181627552</v>
+        <v>0.9962625275107746</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9776796726712128</v>
+        <v>0.9820692093456137</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9295452474470862</v>
+        <v>0.915237983882871</v>
       </c>
       <c r="G11">
         <v>27</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/43_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/43_225-80R17.xlsx
@@ -689,43 +689,43 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.002006765722526697</v>
       </c>
       <c r="E2">
-        <v>0.2127069668866213</v>
+        <v>0.2126047528472678</v>
       </c>
       <c r="F2">
-        <v>0.09863084541182979</v>
+        <v>0.09858344942258712</v>
       </c>
       <c r="G2">
-        <v>0.02240959447844173</v>
+        <v>0.02239882578945404</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.08870159263506186</v>
+        <v>0.0886589680411756</v>
       </c>
       <c r="J2">
-        <v>0.002834380685868628</v>
+        <v>0.002833018654792688</v>
       </c>
       <c r="K2">
-        <v>0.01047825558168749</v>
+        <v>0.01047322036895299</v>
       </c>
       <c r="L2">
-        <v>0.004995991788587114</v>
+        <v>0.004993591018604057</v>
       </c>
       <c r="M2">
-        <v>0.1617046486310822</v>
+        <v>0.1616269432058169</v>
       </c>
       <c r="N2">
-        <v>0.06104055130028296</v>
+        <v>0.06101121892154572</v>
       </c>
       <c r="O2">
-        <v>0.004614461453189832</v>
+        <v>0.004612244023495473</v>
       </c>
       <c r="P2">
-        <v>0.00201803711090926</v>
+        <v>0.002017067364935771</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -737,55 +737,55 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.06757921243725445</v>
+        <v>0.06754673797541313</v>
       </c>
       <c r="U2">
-        <v>0.04099505719257693</v>
+        <v>0.04097535745988592</v>
       </c>
       <c r="V2">
-        <v>0.02274923940574862</v>
+        <v>0.02273830750405345</v>
       </c>
       <c r="W2">
-        <v>0.002627297750365359</v>
+        <v>0.002626035230761136</v>
       </c>
       <c r="X2">
-        <v>0.009587423839133254</v>
+        <v>0.009582816705986956</v>
       </c>
       <c r="Y2">
-        <v>0.001393273093452157</v>
+        <v>0.00139260357109053</v>
       </c>
       <c r="Z2">
-        <v>0.005764571114115846</v>
+        <v>0.005761801011625369</v>
       </c>
       <c r="AA2">
-        <v>0.01275205596089575</v>
+        <v>0.01274592809790704</v>
       </c>
       <c r="AB2">
-        <v>0.01483437447993228</v>
+        <v>0.01482724598123254</v>
       </c>
       <c r="AC2">
-        <v>0.0006946681225420735</v>
+        <v>0.0006943343072662767</v>
       </c>
       <c r="AD2">
-        <v>0.05962983970657044</v>
+        <v>0.05960118523007809</v>
       </c>
       <c r="AE2">
-        <v>0.04106151381231295</v>
+        <v>0.04104178214460991</v>
       </c>
       <c r="AF2">
-        <v>0.01660536206909148</v>
+        <v>0.01659738254140204</v>
       </c>
       <c r="AG2">
-        <v>0.02585628759214127</v>
+        <v>0.02584386263194292</v>
       </c>
       <c r="AH2">
-        <v>0.006207537190651822</v>
+        <v>0.006204554225589697</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.001526960269653014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -805,7 +805,7 @@
         <v>0.1415922569922945</v>
       </c>
       <c r="F3">
-        <v>0.003589283571538827</v>
+        <v>0.003589283571538826</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0.1600127193876931</v>
       </c>
       <c r="J3">
-        <v>0.004894497176005506</v>
+        <v>0.004894497176005509</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0.02977295733026968</v>
       </c>
       <c r="M3">
-        <v>0.2096146787542453</v>
+        <v>0.2096146787542454</v>
       </c>
       <c r="N3">
-        <v>0.01234425148966898</v>
+        <v>0.01234425148966899</v>
       </c>
       <c r="O3">
-        <v>0.04440259957954138</v>
+        <v>0.04440259957954139</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -847,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.06235320421401432</v>
+        <v>0.06235320421401433</v>
       </c>
       <c r="U3">
         <v>0.02467626343441663</v>
       </c>
       <c r="V3">
-        <v>0.02684863933364152</v>
+        <v>0.02684863933364153</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0.02174383895440429</v>
       </c>
       <c r="AF3">
-        <v>0.03509823116582758</v>
+        <v>0.0350982311658276</v>
       </c>
       <c r="AG3">
         <v>0.04878160162169749</v>
@@ -1132,37 +1132,37 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1867706865320108</v>
+        <v>0.1874019429862166</v>
       </c>
       <c r="F6">
-        <v>0.09549714414984097</v>
+        <v>0.09581990994206543</v>
       </c>
       <c r="G6">
-        <v>0.003451895100600371</v>
+        <v>0.003463561979926867</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.04450690356453555</v>
+        <v>0.04465733011515495</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.001006741114362826</v>
+        <v>0.001010143745888983</v>
       </c>
       <c r="L6">
-        <v>0.05620356835582065</v>
+        <v>0.05639352785071134</v>
       </c>
       <c r="M6">
-        <v>0.2199572111014031</v>
+        <v>0.2207006329505972</v>
       </c>
       <c r="N6">
-        <v>0.002957731339256682</v>
+        <v>0.002967728020386794</v>
       </c>
       <c r="O6">
-        <v>0.002442741628188215</v>
+        <v>0.00245099772258602</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1177,55 +1177,55 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1379820371023241</v>
+        <v>0.1384483953574798</v>
       </c>
       <c r="U6">
-        <v>0.03093582241426343</v>
+        <v>0.0310403807790035</v>
       </c>
       <c r="V6">
-        <v>0.008995219297606495</v>
+        <v>0.009025621767844444</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.03661983945777809</v>
+        <v>0.0367436089338074</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.005065952712430966</v>
+        <v>0.005083074860482158</v>
       </c>
       <c r="AA6">
-        <v>0.01047751565178345</v>
+        <v>0.01051292805777735</v>
       </c>
       <c r="AB6">
-        <v>0.008456001261579549</v>
+        <v>0.008484581257039542</v>
       </c>
       <c r="AC6">
-        <v>0.001620549746577602</v>
+        <v>0.001626026957728258</v>
       </c>
       <c r="AD6">
-        <v>0.07064339767375213</v>
+        <v>0.07088216159092038</v>
       </c>
       <c r="AE6">
-        <v>0.03975243500873663</v>
+        <v>0.03988679218028005</v>
       </c>
       <c r="AF6">
-        <v>0.0192344437176266</v>
+        <v>0.01929945320581377</v>
       </c>
       <c r="AG6">
-        <v>0.007423015390198904</v>
+        <v>0.007448104050854063</v>
       </c>
       <c r="AH6">
-        <v>0.006630684982795576</v>
+        <v>0.006653095687435127</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.003368462696527795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1679,43 +1679,43 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.003450276134081306</v>
       </c>
       <c r="E11">
-        <v>0.1874767773268845</v>
+        <v>0.1892852887046901</v>
       </c>
       <c r="F11">
-        <v>0.1262590159419168</v>
+        <v>0.1274769847492393</v>
       </c>
       <c r="G11">
-        <v>0.07615149604906249</v>
+        <v>0.07688609821689001</v>
       </c>
       <c r="H11">
-        <v>0.0112157930349232</v>
+        <v>0.01132398717824051</v>
       </c>
       <c r="I11">
-        <v>0.008263472450238804</v>
+        <v>0.00834318677091108</v>
       </c>
       <c r="J11">
-        <v>0.003301417528353657</v>
+        <v>0.003333264945660729</v>
       </c>
       <c r="K11">
-        <v>0.007682651997925804</v>
+        <v>0.007756763382536089</v>
       </c>
       <c r="L11">
-        <v>0.1228605233532873</v>
+        <v>0.1240457083001149</v>
       </c>
       <c r="M11">
-        <v>0.01175396962012543</v>
+        <v>0.01186735533165446</v>
       </c>
       <c r="N11">
-        <v>0.06094950138474729</v>
+        <v>0.06153745616132051</v>
       </c>
       <c r="O11">
-        <v>0.0766426800260539</v>
+        <v>0.07738202044372576</v>
       </c>
       <c r="P11">
-        <v>0.01008211862815695</v>
+        <v>0.01017937668065492</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1727,43 +1727,43 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.05171517489825327</v>
+        <v>0.05221404992449518</v>
       </c>
       <c r="U11">
-        <v>0.0572242084104311</v>
+        <v>0.05777622681757354</v>
       </c>
       <c r="V11">
-        <v>0.01359695373223934</v>
+        <v>0.01372811795363715</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.00375802268334008</v>
+        <v>0.003794274782814895</v>
       </c>
       <c r="Y11">
-        <v>0.005336754379508112</v>
+        <v>0.005388235854459357</v>
       </c>
       <c r="Z11">
-        <v>0.000919475117589948</v>
+        <v>0.0009283449159483397</v>
       </c>
       <c r="AA11">
-        <v>0.01096747962367951</v>
+        <v>0.01107327838962849</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.006259812806766983</v>
+        <v>0.006320198646791489</v>
       </c>
       <c r="AD11">
-        <v>0.06282068488938651</v>
+        <v>0.0634266902037722</v>
       </c>
       <c r="AE11">
-        <v>0.06179785921607003</v>
+        <v>0.06239399775178545</v>
       </c>
       <c r="AF11">
-        <v>0.004635531801567031</v>
+        <v>0.004680248870661387</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1772,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.005356893143387767</v>
+        <v>0.005408568888712818</v>
       </c>
       <c r="AJ11">
-        <v>0.01297173195610424</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.002006765722526697</v>
       </c>
       <c r="E2">
-        <v>0.2127069668866213</v>
+        <v>0.2146115185697945</v>
       </c>
       <c r="F2">
-        <v>0.3113378122984511</v>
+        <v>0.3131949679923817</v>
       </c>
       <c r="G2">
-        <v>0.3337474067768929</v>
+        <v>0.3355937937818357</v>
       </c>
       <c r="H2">
-        <v>0.3337474067768929</v>
+        <v>0.3355937937818357</v>
       </c>
       <c r="I2">
-        <v>0.4224489994119547</v>
+        <v>0.4242527618230113</v>
       </c>
       <c r="J2">
-        <v>0.4252833800978233</v>
+        <v>0.427085780477804</v>
       </c>
       <c r="K2">
-        <v>0.4357616356795108</v>
+        <v>0.437559000846757</v>
       </c>
       <c r="L2">
-        <v>0.4407576274680979</v>
+        <v>0.4425525918653611</v>
       </c>
       <c r="M2">
-        <v>0.6024622760991801</v>
+        <v>0.6041795350711781</v>
       </c>
       <c r="N2">
-        <v>0.6635028273994631</v>
+        <v>0.6651907539927238</v>
       </c>
       <c r="O2">
-        <v>0.6681172888526529</v>
+        <v>0.6698029980162192</v>
       </c>
       <c r="P2">
-        <v>0.6701353259635622</v>
+        <v>0.671820065381155</v>
       </c>
       <c r="Q2">
-        <v>0.6701353259635622</v>
+        <v>0.671820065381155</v>
       </c>
       <c r="R2">
-        <v>0.6701353259635622</v>
+        <v>0.671820065381155</v>
       </c>
       <c r="S2">
-        <v>0.6701353259635622</v>
+        <v>0.671820065381155</v>
       </c>
       <c r="T2">
-        <v>0.7377145384008166</v>
+        <v>0.7393668033565681</v>
       </c>
       <c r="U2">
-        <v>0.7787095955933935</v>
+        <v>0.780342160816454</v>
       </c>
       <c r="V2">
-        <v>0.8014588349991421</v>
+        <v>0.8030804683205075</v>
       </c>
       <c r="W2">
-        <v>0.8040861327495075</v>
+        <v>0.8057065035512686</v>
       </c>
       <c r="X2">
-        <v>0.8136735565886407</v>
+        <v>0.8152893202572555</v>
       </c>
       <c r="Y2">
-        <v>0.8150668296820929</v>
+        <v>0.816681923828346</v>
       </c>
       <c r="Z2">
-        <v>0.8208314007962088</v>
+        <v>0.8224437248399714</v>
       </c>
       <c r="AA2">
-        <v>0.8335834567571045</v>
+        <v>0.8351896529378785</v>
       </c>
       <c r="AB2">
-        <v>0.8484178312370368</v>
+        <v>0.850016898919111</v>
       </c>
       <c r="AC2">
-        <v>0.8491124993595789</v>
+        <v>0.8507112332263773</v>
       </c>
       <c r="AD2">
-        <v>0.9087423390661493</v>
+        <v>0.9103124184564554</v>
       </c>
       <c r="AE2">
-        <v>0.9498038528784623</v>
+        <v>0.9513542006010653</v>
       </c>
       <c r="AF2">
-        <v>0.9664092149475537</v>
+        <v>0.9679515831424674</v>
       </c>
       <c r="AG2">
-        <v>0.992265502539695</v>
+        <v>0.9937954457744104</v>
       </c>
       <c r="AH2">
-        <v>0.9984730397303468</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9984730397303468</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2034,7 +2034,7 @@
         <v>0.1451815405638333</v>
       </c>
       <c r="H3">
-        <v>0.2499601219552051</v>
+        <v>0.2499601219552052</v>
       </c>
       <c r="I3">
         <v>0.4099728413428982</v>
@@ -2103,13 +2103,13 @@
         <v>0.8795219575021215</v>
       </c>
       <c r="AE3">
-        <v>0.9012657964565257</v>
+        <v>0.9012657964565258</v>
       </c>
       <c r="AF3">
-        <v>0.9363640276223533</v>
+        <v>0.9363640276223534</v>
       </c>
       <c r="AG3">
-        <v>0.9851456292440508</v>
+        <v>0.9851456292440509</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2355,97 +2355,97 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1867706865320108</v>
+        <v>0.1874019429862166</v>
       </c>
       <c r="F6">
-        <v>0.2822678306818517</v>
+        <v>0.2832218529282821</v>
       </c>
       <c r="G6">
-        <v>0.2857197257824521</v>
+        <v>0.2866854149082089</v>
       </c>
       <c r="H6">
-        <v>0.2857197257824521</v>
+        <v>0.2866854149082089</v>
       </c>
       <c r="I6">
-        <v>0.3302266293469877</v>
+        <v>0.3313427450233639</v>
       </c>
       <c r="J6">
-        <v>0.3302266293469877</v>
+        <v>0.3313427450233639</v>
       </c>
       <c r="K6">
-        <v>0.3312333704613505</v>
+        <v>0.3323528887692528</v>
       </c>
       <c r="L6">
-        <v>0.3874369388171711</v>
+        <v>0.3887464166199642</v>
       </c>
       <c r="M6">
-        <v>0.6073941499185742</v>
+        <v>0.6094470495705614</v>
       </c>
       <c r="N6">
-        <v>0.6103518812578309</v>
+        <v>0.6124147775909482</v>
       </c>
       <c r="O6">
-        <v>0.6127946228860192</v>
+        <v>0.6148657753135343</v>
       </c>
       <c r="P6">
-        <v>0.6127946228860192</v>
+        <v>0.6148657753135343</v>
       </c>
       <c r="Q6">
-        <v>0.6127946228860192</v>
+        <v>0.6148657753135343</v>
       </c>
       <c r="R6">
-        <v>0.6127946228860192</v>
+        <v>0.6148657753135343</v>
       </c>
       <c r="S6">
-        <v>0.6127946228860192</v>
+        <v>0.6148657753135343</v>
       </c>
       <c r="T6">
-        <v>0.7507766599883432</v>
+        <v>0.753314170671014</v>
       </c>
       <c r="U6">
-        <v>0.7817124824026066</v>
+        <v>0.7843545514500175</v>
       </c>
       <c r="V6">
-        <v>0.7907077017002131</v>
+        <v>0.793380173217862</v>
       </c>
       <c r="W6">
-        <v>0.7907077017002131</v>
+        <v>0.793380173217862</v>
       </c>
       <c r="X6">
-        <v>0.8273275411579912</v>
+        <v>0.8301237821516694</v>
       </c>
       <c r="Y6">
-        <v>0.8273275411579912</v>
+        <v>0.8301237821516694</v>
       </c>
       <c r="Z6">
-        <v>0.8323934938704222</v>
+        <v>0.8352068570121516</v>
       </c>
       <c r="AA6">
-        <v>0.8428710095222056</v>
+        <v>0.845719785069929</v>
       </c>
       <c r="AB6">
-        <v>0.8513270107837851</v>
+        <v>0.8542043663269685</v>
       </c>
       <c r="AC6">
-        <v>0.8529475605303627</v>
+        <v>0.8558303932846968</v>
       </c>
       <c r="AD6">
-        <v>0.9235909582041149</v>
+        <v>0.9267125548756172</v>
       </c>
       <c r="AE6">
-        <v>0.9633433932128515</v>
+        <v>0.9665993470558972</v>
       </c>
       <c r="AF6">
-        <v>0.9825778369304781</v>
+        <v>0.985898800261711</v>
       </c>
       <c r="AG6">
-        <v>0.9900008523206769</v>
+        <v>0.993346904312565</v>
       </c>
       <c r="AH6">
-        <v>0.9966315373034725</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9966315373034725</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -2902,100 +2902,100 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.003450276134081306</v>
       </c>
       <c r="E11">
-        <v>0.1874767773268845</v>
+        <v>0.1927355648387714</v>
       </c>
       <c r="F11">
-        <v>0.3137357932688012</v>
+        <v>0.3202125495880107</v>
       </c>
       <c r="G11">
-        <v>0.3898872893178638</v>
+        <v>0.3970986478049007</v>
       </c>
       <c r="H11">
-        <v>0.401103082352787</v>
+        <v>0.4084226349831412</v>
       </c>
       <c r="I11">
-        <v>0.4093665548030258</v>
+        <v>0.4167658217540523</v>
       </c>
       <c r="J11">
-        <v>0.4126679723313794</v>
+        <v>0.420099086699713</v>
       </c>
       <c r="K11">
-        <v>0.4203506243293052</v>
+        <v>0.4278558500822491</v>
       </c>
       <c r="L11">
-        <v>0.5432111476825925</v>
+        <v>0.551901558382364</v>
       </c>
       <c r="M11">
-        <v>0.5549651173027179</v>
+        <v>0.5637689137140185</v>
       </c>
       <c r="N11">
-        <v>0.6159146186874652</v>
+        <v>0.6253063698753391</v>
       </c>
       <c r="O11">
-        <v>0.6925572987135191</v>
+        <v>0.7026883903190648</v>
       </c>
       <c r="P11">
-        <v>0.7026394173416761</v>
+        <v>0.7128677669997198</v>
       </c>
       <c r="Q11">
-        <v>0.7026394173416761</v>
+        <v>0.7128677669997198</v>
       </c>
       <c r="R11">
-        <v>0.7026394173416761</v>
+        <v>0.7128677669997198</v>
       </c>
       <c r="S11">
-        <v>0.7026394173416761</v>
+        <v>0.7128677669997198</v>
       </c>
       <c r="T11">
-        <v>0.7543545922399294</v>
+        <v>0.765081816924215</v>
       </c>
       <c r="U11">
-        <v>0.8115788006503605</v>
+        <v>0.8228580437417885</v>
       </c>
       <c r="V11">
-        <v>0.8251757543825998</v>
+        <v>0.8365861616954257</v>
       </c>
       <c r="W11">
-        <v>0.8251757543825998</v>
+        <v>0.8365861616954257</v>
       </c>
       <c r="X11">
-        <v>0.82893377706594</v>
+        <v>0.8403804364782406</v>
       </c>
       <c r="Y11">
-        <v>0.834270531445448</v>
+        <v>0.8457686723326999</v>
       </c>
       <c r="Z11">
-        <v>0.835190006563038</v>
+        <v>0.8466970172486482</v>
       </c>
       <c r="AA11">
-        <v>0.8461574861867175</v>
+        <v>0.8577702956382767</v>
       </c>
       <c r="AB11">
-        <v>0.8461574861867175</v>
+        <v>0.8577702956382767</v>
       </c>
       <c r="AC11">
-        <v>0.8524172989934845</v>
+        <v>0.8640904942850681</v>
       </c>
       <c r="AD11">
-        <v>0.915237983882871</v>
+        <v>0.9275171844888404</v>
       </c>
       <c r="AE11">
-        <v>0.9770358430989411</v>
+        <v>0.9899111822406258</v>
       </c>
       <c r="AF11">
-        <v>0.9816713749005082</v>
+        <v>0.9945914311112872</v>
       </c>
       <c r="AG11">
-        <v>0.9816713749005082</v>
+        <v>0.9945914311112872</v>
       </c>
       <c r="AH11">
-        <v>0.9816713749005082</v>
+        <v>0.9945914311112872</v>
       </c>
       <c r="AI11">
-        <v>0.9870282680438959</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6024622760991801</v>
+        <v>0.6041795350711781</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6073941499185742</v>
+        <v>0.6094470495705614</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5432111476825925</v>
+        <v>0.551901558382364</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7377145384008166</v>
+        <v>0.7393668033565681</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7507766599883432</v>
+        <v>0.753314170671014</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -3899,16 +3899,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7026394173416761</v>
+        <v>0.7026883903190648</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>43</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8014588349991421</v>
+        <v>0.8030804683205075</v>
       </c>
       <c r="G2">
         <v>19</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8273275411579912</v>
+        <v>0.8301237821516694</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8115788006503605</v>
+        <v>0.8228580437417885</v>
       </c>
       <c r="G11">
         <v>18</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9087423390661493</v>
+        <v>0.9103124184564554</v>
       </c>
       <c r="G2">
         <v>27</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9012657964565257</v>
+        <v>0.9012657964565258</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9235909582041149</v>
+        <v>0.9267125548756172</v>
       </c>
       <c r="G6">
         <v>27</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.915237983882871</v>
+        <v>0.9275171844888404</v>
       </c>
       <c r="G11">
         <v>27</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/43_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/43_225-80R17.xlsx
@@ -689,43 +689,43 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.002006765722526697</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2126047528472678</v>
+        <v>0.2127069668866213</v>
       </c>
       <c r="F2">
-        <v>0.09858344942258712</v>
+        <v>0.09863084541182979</v>
       </c>
       <c r="G2">
-        <v>0.02239882578945404</v>
+        <v>0.02240959447844173</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0886589680411756</v>
+        <v>0.08870159263506186</v>
       </c>
       <c r="J2">
-        <v>0.002833018654792688</v>
+        <v>0.002834380685868628</v>
       </c>
       <c r="K2">
-        <v>0.01047322036895299</v>
+        <v>0.01047825558168749</v>
       </c>
       <c r="L2">
-        <v>0.004993591018604057</v>
+        <v>0.004995991788587114</v>
       </c>
       <c r="M2">
-        <v>0.1616269432058169</v>
+        <v>0.1617046486310822</v>
       </c>
       <c r="N2">
-        <v>0.06101121892154572</v>
+        <v>0.06104055130028296</v>
       </c>
       <c r="O2">
-        <v>0.004612244023495473</v>
+        <v>0.004614461453189832</v>
       </c>
       <c r="P2">
-        <v>0.002017067364935771</v>
+        <v>0.00201803711090926</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -737,55 +737,55 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.06754673797541313</v>
+        <v>0.06757921243725445</v>
       </c>
       <c r="U2">
-        <v>0.04097535745988592</v>
+        <v>0.04099505719257693</v>
       </c>
       <c r="V2">
-        <v>0.02273830750405345</v>
+        <v>0.02274923940574862</v>
       </c>
       <c r="W2">
-        <v>0.002626035230761136</v>
+        <v>0.002627297750365359</v>
       </c>
       <c r="X2">
-        <v>0.009582816705986956</v>
+        <v>0.009587423839133254</v>
       </c>
       <c r="Y2">
-        <v>0.00139260357109053</v>
+        <v>0.001393273093452157</v>
       </c>
       <c r="Z2">
-        <v>0.005761801011625369</v>
+        <v>0.005764571114115846</v>
       </c>
       <c r="AA2">
-        <v>0.01274592809790704</v>
+        <v>0.01275205596089575</v>
       </c>
       <c r="AB2">
-        <v>0.01482724598123254</v>
+        <v>0.01483437447993228</v>
       </c>
       <c r="AC2">
-        <v>0.0006943343072662767</v>
+        <v>0.0006946681225420735</v>
       </c>
       <c r="AD2">
-        <v>0.05960118523007809</v>
+        <v>0.05962983970657044</v>
       </c>
       <c r="AE2">
-        <v>0.04104178214460991</v>
+        <v>0.04106151381231295</v>
       </c>
       <c r="AF2">
-        <v>0.01659738254140204</v>
+        <v>0.01660536206909148</v>
       </c>
       <c r="AG2">
-        <v>0.02584386263194292</v>
+        <v>0.02585628759214127</v>
       </c>
       <c r="AH2">
-        <v>0.006204554225589697</v>
+        <v>0.006207537190651822</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.001526960269653014</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -805,7 +805,7 @@
         <v>0.1415922569922945</v>
       </c>
       <c r="F3">
-        <v>0.003589283571538826</v>
+        <v>0.003589283571538827</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0.1600127193876931</v>
       </c>
       <c r="J3">
-        <v>0.004894497176005509</v>
+        <v>0.004894497176005506</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0.02977295733026968</v>
       </c>
       <c r="M3">
-        <v>0.2096146787542454</v>
+        <v>0.2096146787542453</v>
       </c>
       <c r="N3">
-        <v>0.01234425148966899</v>
+        <v>0.01234425148966898</v>
       </c>
       <c r="O3">
-        <v>0.04440259957954139</v>
+        <v>0.04440259957954138</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -847,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.06235320421401433</v>
+        <v>0.06235320421401432</v>
       </c>
       <c r="U3">
         <v>0.02467626343441663</v>
       </c>
       <c r="V3">
-        <v>0.02684863933364153</v>
+        <v>0.02684863933364152</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0.02174383895440429</v>
       </c>
       <c r="AF3">
-        <v>0.0350982311658276</v>
+        <v>0.03509823116582758</v>
       </c>
       <c r="AG3">
         <v>0.04878160162169749</v>
@@ -1019,43 +1019,43 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006686805596322774</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1227278671165156</v>
+        <v>0.1235540490229708</v>
       </c>
       <c r="F5">
-        <v>0.24047300741979</v>
+        <v>0.242091828412845</v>
       </c>
       <c r="G5">
-        <v>0.01056652266109488</v>
+        <v>0.01063765458933459</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0192771573781026</v>
+        <v>0.0194069277310621</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.02267037783648626</v>
+        <v>0.02282299073868249</v>
       </c>
       <c r="L5">
-        <v>0.05963977887969446</v>
+        <v>0.06004126313402935</v>
       </c>
       <c r="M5">
-        <v>0.002798319033181604</v>
+        <v>0.00281715681312533</v>
       </c>
       <c r="N5">
-        <v>0.1146871979031047</v>
+        <v>0.1154592514719948</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.00393160472035136</v>
+        <v>0.003958071575513147</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1064,55 +1064,55 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.006510890006325497</v>
+        <v>0.006554720145677944</v>
       </c>
       <c r="T5">
-        <v>0.07652242385398848</v>
+        <v>0.07703755903486988</v>
       </c>
       <c r="U5">
-        <v>0.02529576816914282</v>
+        <v>0.02546605472640359</v>
       </c>
       <c r="V5">
-        <v>0.02960620427331705</v>
+        <v>0.02980550791041364</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.01369198723424039</v>
+        <v>0.01378415922730212</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.005425225044068899</v>
+        <v>0.005461746682350133</v>
       </c>
       <c r="AA5">
-        <v>0.02256376043861528</v>
+        <v>0.02271565561168362</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0031415661839587</v>
+        <v>0.003162714641925902</v>
       </c>
       <c r="AD5">
-        <v>0.1141912427500442</v>
+        <v>0.1149599576381318</v>
       </c>
       <c r="AE5">
-        <v>0.05338728312716797</v>
+        <v>0.0537466767057477</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.01299465400904977</v>
+        <v>0.01308213168038198</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.03321035636543709</v>
+        <v>0.03343392250555424</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1132,37 +1132,37 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1874019429862166</v>
+        <v>0.1867706865320108</v>
       </c>
       <c r="F6">
-        <v>0.09581990994206543</v>
+        <v>0.09549714414984097</v>
       </c>
       <c r="G6">
-        <v>0.003463561979926867</v>
+        <v>0.003451895100600371</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.04465733011515495</v>
+        <v>0.04450690356453555</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.001010143745888983</v>
+        <v>0.001006741114362826</v>
       </c>
       <c r="L6">
-        <v>0.05639352785071134</v>
+        <v>0.05620356835582065</v>
       </c>
       <c r="M6">
-        <v>0.2207006329505972</v>
+        <v>0.2199572111014031</v>
       </c>
       <c r="N6">
-        <v>0.002967728020386794</v>
+        <v>0.002957731339256682</v>
       </c>
       <c r="O6">
-        <v>0.00245099772258602</v>
+        <v>0.002442741628188215</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1177,55 +1177,55 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1384483953574798</v>
+        <v>0.1379820371023241</v>
       </c>
       <c r="U6">
-        <v>0.0310403807790035</v>
+        <v>0.03093582241426343</v>
       </c>
       <c r="V6">
-        <v>0.009025621767844444</v>
+        <v>0.008995219297606495</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0367436089338074</v>
+        <v>0.03661983945777809</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.005083074860482158</v>
+        <v>0.005065952712430966</v>
       </c>
       <c r="AA6">
-        <v>0.01051292805777735</v>
+        <v>0.01047751565178345</v>
       </c>
       <c r="AB6">
-        <v>0.008484581257039542</v>
+        <v>0.008456001261579549</v>
       </c>
       <c r="AC6">
-        <v>0.001626026957728258</v>
+        <v>0.001620549746577602</v>
       </c>
       <c r="AD6">
-        <v>0.07088216159092038</v>
+        <v>0.07064339767375213</v>
       </c>
       <c r="AE6">
-        <v>0.03988679218028005</v>
+        <v>0.03975243500873663</v>
       </c>
       <c r="AF6">
-        <v>0.01929945320581377</v>
+        <v>0.0192344437176266</v>
       </c>
       <c r="AG6">
-        <v>0.007448104050854063</v>
+        <v>0.007423015390198904</v>
       </c>
       <c r="AH6">
-        <v>0.006653095687435127</v>
+        <v>0.006630684982795576</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.003368462696527795</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1679,43 +1679,43 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.003450276134081306</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1892852887046901</v>
+        <v>0.1874767773268845</v>
       </c>
       <c r="F11">
-        <v>0.1274769847492393</v>
+        <v>0.1262590159419168</v>
       </c>
       <c r="G11">
-        <v>0.07688609821689001</v>
+        <v>0.07615149604906249</v>
       </c>
       <c r="H11">
-        <v>0.01132398717824051</v>
+        <v>0.0112157930349232</v>
       </c>
       <c r="I11">
-        <v>0.00834318677091108</v>
+        <v>0.008263472450238804</v>
       </c>
       <c r="J11">
-        <v>0.003333264945660729</v>
+        <v>0.003301417528353657</v>
       </c>
       <c r="K11">
-        <v>0.007756763382536089</v>
+        <v>0.007682651997925804</v>
       </c>
       <c r="L11">
-        <v>0.1240457083001149</v>
+        <v>0.1228605233532873</v>
       </c>
       <c r="M11">
-        <v>0.01186735533165446</v>
+        <v>0.01175396962012543</v>
       </c>
       <c r="N11">
-        <v>0.06153745616132051</v>
+        <v>0.06094950138474729</v>
       </c>
       <c r="O11">
-        <v>0.07738202044372576</v>
+        <v>0.0766426800260539</v>
       </c>
       <c r="P11">
-        <v>0.01017937668065492</v>
+        <v>0.01008211862815695</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1727,43 +1727,43 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.05221404992449518</v>
+        <v>0.05171517489825327</v>
       </c>
       <c r="U11">
-        <v>0.05777622681757354</v>
+        <v>0.0572242084104311</v>
       </c>
       <c r="V11">
-        <v>0.01372811795363715</v>
+        <v>0.01359695373223934</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.003794274782814895</v>
+        <v>0.00375802268334008</v>
       </c>
       <c r="Y11">
-        <v>0.005388235854459357</v>
+        <v>0.005336754379508112</v>
       </c>
       <c r="Z11">
-        <v>0.0009283449159483397</v>
+        <v>0.000919475117589948</v>
       </c>
       <c r="AA11">
-        <v>0.01107327838962849</v>
+        <v>0.01096747962367951</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.006320198646791489</v>
+        <v>0.006259812806766983</v>
       </c>
       <c r="AD11">
-        <v>0.0634266902037722</v>
+        <v>0.06282068488938651</v>
       </c>
       <c r="AE11">
-        <v>0.06239399775178545</v>
+        <v>0.06179785921607003</v>
       </c>
       <c r="AF11">
-        <v>0.004680248870661387</v>
+        <v>0.004635531801567031</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1772,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.005408568888712818</v>
+        <v>0.005356893143387767</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>0.01297173195610424</v>
       </c>
     </row>
   </sheetData>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.002006765722526697</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2146115185697945</v>
+        <v>0.2127069668866213</v>
       </c>
       <c r="F2">
-        <v>0.3131949679923817</v>
+        <v>0.3113378122984511</v>
       </c>
       <c r="G2">
-        <v>0.3355937937818357</v>
+        <v>0.3337474067768929</v>
       </c>
       <c r="H2">
-        <v>0.3355937937818357</v>
+        <v>0.3337474067768929</v>
       </c>
       <c r="I2">
-        <v>0.4242527618230113</v>
+        <v>0.4224489994119547</v>
       </c>
       <c r="J2">
-        <v>0.427085780477804</v>
+        <v>0.4252833800978233</v>
       </c>
       <c r="K2">
-        <v>0.437559000846757</v>
+        <v>0.4357616356795108</v>
       </c>
       <c r="L2">
-        <v>0.4425525918653611</v>
+        <v>0.4407576274680979</v>
       </c>
       <c r="M2">
-        <v>0.6041795350711781</v>
+        <v>0.6024622760991801</v>
       </c>
       <c r="N2">
-        <v>0.6651907539927238</v>
+        <v>0.6635028273994631</v>
       </c>
       <c r="O2">
-        <v>0.6698029980162192</v>
+        <v>0.6681172888526529</v>
       </c>
       <c r="P2">
-        <v>0.671820065381155</v>
+        <v>0.6701353259635622</v>
       </c>
       <c r="Q2">
-        <v>0.671820065381155</v>
+        <v>0.6701353259635622</v>
       </c>
       <c r="R2">
-        <v>0.671820065381155</v>
+        <v>0.6701353259635622</v>
       </c>
       <c r="S2">
-        <v>0.671820065381155</v>
+        <v>0.6701353259635622</v>
       </c>
       <c r="T2">
-        <v>0.7393668033565681</v>
+        <v>0.7377145384008166</v>
       </c>
       <c r="U2">
-        <v>0.780342160816454</v>
+        <v>0.7787095955933935</v>
       </c>
       <c r="V2">
-        <v>0.8030804683205075</v>
+        <v>0.8014588349991421</v>
       </c>
       <c r="W2">
-        <v>0.8057065035512686</v>
+        <v>0.8040861327495075</v>
       </c>
       <c r="X2">
-        <v>0.8152893202572555</v>
+        <v>0.8136735565886407</v>
       </c>
       <c r="Y2">
-        <v>0.816681923828346</v>
+        <v>0.8150668296820929</v>
       </c>
       <c r="Z2">
-        <v>0.8224437248399714</v>
+        <v>0.8208314007962088</v>
       </c>
       <c r="AA2">
-        <v>0.8351896529378785</v>
+        <v>0.8335834567571045</v>
       </c>
       <c r="AB2">
-        <v>0.850016898919111</v>
+        <v>0.8484178312370368</v>
       </c>
       <c r="AC2">
-        <v>0.8507112332263773</v>
+        <v>0.8491124993595789</v>
       </c>
       <c r="AD2">
-        <v>0.9103124184564554</v>
+        <v>0.9087423390661493</v>
       </c>
       <c r="AE2">
-        <v>0.9513542006010653</v>
+        <v>0.9498038528784623</v>
       </c>
       <c r="AF2">
-        <v>0.9679515831424674</v>
+        <v>0.9664092149475537</v>
       </c>
       <c r="AG2">
-        <v>0.9937954457744104</v>
+        <v>0.992265502539695</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9984730397303468</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9984730397303468</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2034,7 +2034,7 @@
         <v>0.1451815405638333</v>
       </c>
       <c r="H3">
-        <v>0.2499601219552052</v>
+        <v>0.2499601219552051</v>
       </c>
       <c r="I3">
         <v>0.4099728413428982</v>
@@ -2103,13 +2103,13 @@
         <v>0.8795219575021215</v>
       </c>
       <c r="AE3">
-        <v>0.9012657964565258</v>
+        <v>0.9012657964565257</v>
       </c>
       <c r="AF3">
-        <v>0.9363640276223534</v>
+        <v>0.9363640276223533</v>
       </c>
       <c r="AG3">
-        <v>0.9851456292440509</v>
+        <v>0.9851456292440508</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2242,97 +2242,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006686805596322774</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1294146727128384</v>
+        <v>0.1235540490229708</v>
       </c>
       <c r="F5">
-        <v>0.3698876801326284</v>
+        <v>0.3656458774358158</v>
       </c>
       <c r="G5">
-        <v>0.3804542027937233</v>
+        <v>0.3762835320251504</v>
       </c>
       <c r="H5">
-        <v>0.3804542027937233</v>
+        <v>0.3762835320251504</v>
       </c>
       <c r="I5">
-        <v>0.3997313601718259</v>
+        <v>0.3956904597562125</v>
       </c>
       <c r="J5">
-        <v>0.3997313601718259</v>
+        <v>0.3956904597562125</v>
       </c>
       <c r="K5">
-        <v>0.4224017380083121</v>
+        <v>0.418513450494895</v>
       </c>
       <c r="L5">
-        <v>0.4820415168880066</v>
+        <v>0.4785547136289243</v>
       </c>
       <c r="M5">
-        <v>0.4848398359211882</v>
+        <v>0.4813718704420497</v>
       </c>
       <c r="N5">
-        <v>0.5995270338242928</v>
+        <v>0.5968311219140445</v>
       </c>
       <c r="O5">
-        <v>0.5995270338242928</v>
+        <v>0.5968311219140445</v>
       </c>
       <c r="P5">
-        <v>0.6034586385446442</v>
+        <v>0.6007891934895577</v>
       </c>
       <c r="Q5">
-        <v>0.6034586385446442</v>
+        <v>0.6007891934895577</v>
       </c>
       <c r="R5">
-        <v>0.6034586385446442</v>
+        <v>0.6007891934895577</v>
       </c>
       <c r="S5">
-        <v>0.6099695285509698</v>
+        <v>0.6073439136352357</v>
       </c>
       <c r="T5">
-        <v>0.6864919524049582</v>
+        <v>0.6843814726701055</v>
       </c>
       <c r="U5">
-        <v>0.711787720574101</v>
+        <v>0.7098475273965091</v>
       </c>
       <c r="V5">
-        <v>0.7413939248474181</v>
+        <v>0.7396530353069227</v>
       </c>
       <c r="W5">
-        <v>0.7413939248474181</v>
+        <v>0.7396530353069227</v>
       </c>
       <c r="X5">
-        <v>0.7550859120816584</v>
+        <v>0.7534371945342249</v>
       </c>
       <c r="Y5">
-        <v>0.7550859120816584</v>
+        <v>0.7534371945342249</v>
       </c>
       <c r="Z5">
-        <v>0.7605111371257274</v>
+        <v>0.758898941216575</v>
       </c>
       <c r="AA5">
-        <v>0.7830748975643427</v>
+        <v>0.7816145968282586</v>
       </c>
       <c r="AB5">
-        <v>0.7830748975643427</v>
+        <v>0.7816145968282586</v>
       </c>
       <c r="AC5">
-        <v>0.7862164637483013</v>
+        <v>0.7847773114701845</v>
       </c>
       <c r="AD5">
-        <v>0.9004077064983455</v>
+        <v>0.8997372691083163</v>
       </c>
       <c r="AE5">
-        <v>0.9537949896255135</v>
+        <v>0.953483945814064</v>
       </c>
       <c r="AF5">
-        <v>0.9537949896255135</v>
+        <v>0.953483945814064</v>
       </c>
       <c r="AG5">
-        <v>0.9667896436345632</v>
+        <v>0.966566077494446</v>
       </c>
       <c r="AH5">
-        <v>0.9667896436345632</v>
+        <v>0.966566077494446</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2355,97 +2355,97 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1874019429862166</v>
+        <v>0.1867706865320108</v>
       </c>
       <c r="F6">
-        <v>0.2832218529282821</v>
+        <v>0.2822678306818517</v>
       </c>
       <c r="G6">
-        <v>0.2866854149082089</v>
+        <v>0.2857197257824521</v>
       </c>
       <c r="H6">
-        <v>0.2866854149082089</v>
+        <v>0.2857197257824521</v>
       </c>
       <c r="I6">
-        <v>0.3313427450233639</v>
+        <v>0.3302266293469877</v>
       </c>
       <c r="J6">
-        <v>0.3313427450233639</v>
+        <v>0.3302266293469877</v>
       </c>
       <c r="K6">
-        <v>0.3323528887692528</v>
+        <v>0.3312333704613505</v>
       </c>
       <c r="L6">
-        <v>0.3887464166199642</v>
+        <v>0.3874369388171711</v>
       </c>
       <c r="M6">
-        <v>0.6094470495705614</v>
+        <v>0.6073941499185742</v>
       </c>
       <c r="N6">
-        <v>0.6124147775909482</v>
+        <v>0.6103518812578309</v>
       </c>
       <c r="O6">
-        <v>0.6148657753135343</v>
+        <v>0.6127946228860192</v>
       </c>
       <c r="P6">
-        <v>0.6148657753135343</v>
+        <v>0.6127946228860192</v>
       </c>
       <c r="Q6">
-        <v>0.6148657753135343</v>
+        <v>0.6127946228860192</v>
       </c>
       <c r="R6">
-        <v>0.6148657753135343</v>
+        <v>0.6127946228860192</v>
       </c>
       <c r="S6">
-        <v>0.6148657753135343</v>
+        <v>0.6127946228860192</v>
       </c>
       <c r="T6">
-        <v>0.753314170671014</v>
+        <v>0.7507766599883432</v>
       </c>
       <c r="U6">
-        <v>0.7843545514500175</v>
+        <v>0.7817124824026066</v>
       </c>
       <c r="V6">
-        <v>0.793380173217862</v>
+        <v>0.7907077017002131</v>
       </c>
       <c r="W6">
-        <v>0.793380173217862</v>
+        <v>0.7907077017002131</v>
       </c>
       <c r="X6">
-        <v>0.8301237821516694</v>
+        <v>0.8273275411579912</v>
       </c>
       <c r="Y6">
-        <v>0.8301237821516694</v>
+        <v>0.8273275411579912</v>
       </c>
       <c r="Z6">
-        <v>0.8352068570121516</v>
+        <v>0.8323934938704222</v>
       </c>
       <c r="AA6">
-        <v>0.845719785069929</v>
+        <v>0.8428710095222056</v>
       </c>
       <c r="AB6">
-        <v>0.8542043663269685</v>
+        <v>0.8513270107837851</v>
       </c>
       <c r="AC6">
-        <v>0.8558303932846968</v>
+        <v>0.8529475605303627</v>
       </c>
       <c r="AD6">
-        <v>0.9267125548756172</v>
+        <v>0.9235909582041149</v>
       </c>
       <c r="AE6">
-        <v>0.9665993470558972</v>
+        <v>0.9633433932128515</v>
       </c>
       <c r="AF6">
-        <v>0.985898800261711</v>
+        <v>0.9825778369304781</v>
       </c>
       <c r="AG6">
-        <v>0.993346904312565</v>
+        <v>0.9900008523206769</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9966315373034725</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9966315373034725</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -2902,100 +2902,100 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.003450276134081306</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1927355648387714</v>
+        <v>0.1874767773268845</v>
       </c>
       <c r="F11">
-        <v>0.3202125495880107</v>
+        <v>0.3137357932688012</v>
       </c>
       <c r="G11">
-        <v>0.3970986478049007</v>
+        <v>0.3898872893178638</v>
       </c>
       <c r="H11">
-        <v>0.4084226349831412</v>
+        <v>0.401103082352787</v>
       </c>
       <c r="I11">
-        <v>0.4167658217540523</v>
+        <v>0.4093665548030258</v>
       </c>
       <c r="J11">
-        <v>0.420099086699713</v>
+        <v>0.4126679723313794</v>
       </c>
       <c r="K11">
-        <v>0.4278558500822491</v>
+        <v>0.4203506243293052</v>
       </c>
       <c r="L11">
-        <v>0.551901558382364</v>
+        <v>0.5432111476825925</v>
       </c>
       <c r="M11">
-        <v>0.5637689137140185</v>
+        <v>0.5549651173027179</v>
       </c>
       <c r="N11">
-        <v>0.6253063698753391</v>
+        <v>0.6159146186874652</v>
       </c>
       <c r="O11">
-        <v>0.7026883903190648</v>
+        <v>0.6925572987135191</v>
       </c>
       <c r="P11">
-        <v>0.7128677669997198</v>
+        <v>0.7026394173416761</v>
       </c>
       <c r="Q11">
-        <v>0.7128677669997198</v>
+        <v>0.7026394173416761</v>
       </c>
       <c r="R11">
-        <v>0.7128677669997198</v>
+        <v>0.7026394173416761</v>
       </c>
       <c r="S11">
-        <v>0.7128677669997198</v>
+        <v>0.7026394173416761</v>
       </c>
       <c r="T11">
-        <v>0.765081816924215</v>
+        <v>0.7543545922399294</v>
       </c>
       <c r="U11">
-        <v>0.8228580437417885</v>
+        <v>0.8115788006503605</v>
       </c>
       <c r="V11">
-        <v>0.8365861616954257</v>
+        <v>0.8251757543825998</v>
       </c>
       <c r="W11">
-        <v>0.8365861616954257</v>
+        <v>0.8251757543825998</v>
       </c>
       <c r="X11">
-        <v>0.8403804364782406</v>
+        <v>0.82893377706594</v>
       </c>
       <c r="Y11">
-        <v>0.8457686723326999</v>
+        <v>0.834270531445448</v>
       </c>
       <c r="Z11">
-        <v>0.8466970172486482</v>
+        <v>0.835190006563038</v>
       </c>
       <c r="AA11">
-        <v>0.8577702956382767</v>
+        <v>0.8461574861867175</v>
       </c>
       <c r="AB11">
-        <v>0.8577702956382767</v>
+        <v>0.8461574861867175</v>
       </c>
       <c r="AC11">
-        <v>0.8640904942850681</v>
+        <v>0.8524172989934845</v>
       </c>
       <c r="AD11">
-        <v>0.9275171844888404</v>
+        <v>0.915237983882871</v>
       </c>
       <c r="AE11">
-        <v>0.9899111822406258</v>
+        <v>0.9770358430989411</v>
       </c>
       <c r="AF11">
-        <v>0.9945914311112872</v>
+        <v>0.9816713749005082</v>
       </c>
       <c r="AG11">
-        <v>0.9945914311112872</v>
+        <v>0.9816713749005082</v>
       </c>
       <c r="AH11">
-        <v>0.9945914311112872</v>
+        <v>0.9816713749005082</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9870282680438959</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6041795350711781</v>
+        <v>0.6024622760991801</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5995270338242928</v>
+        <v>0.5968311219140445</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6094470495705614</v>
+        <v>0.6073941499185742</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.551901558382364</v>
+        <v>0.5432111476825925</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7393668033565681</v>
+        <v>0.7377145384008166</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.711787720574101</v>
+        <v>0.7098475273965091</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.753314170671014</v>
+        <v>0.7507766599883432</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -3899,16 +3899,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7026883903190648</v>
+        <v>0.7026394173416761</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>43</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8030804683205075</v>
+        <v>0.8014588349991421</v>
       </c>
       <c r="G2">
         <v>19</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9004077064983455</v>
+        <v>0.8997372691083163</v>
       </c>
       <c r="G5">
         <v>27</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8301237821516694</v>
+        <v>0.8273275411579912</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8228580437417885</v>
+        <v>0.8115788006503605</v>
       </c>
       <c r="G11">
         <v>18</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9103124184564554</v>
+        <v>0.9087423390661493</v>
       </c>
       <c r="G2">
         <v>27</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9012657964565258</v>
+        <v>0.9012657964565257</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -4581,16 +4581,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9004077064983455</v>
+        <v>0.953483945814064</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9267125548756172</v>
+        <v>0.9235909582041149</v>
       </c>
       <c r="G6">
         <v>27</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9275171844888404</v>
+        <v>0.915237983882871</v>
       </c>
       <c r="G11">
         <v>27</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/43_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/43_225-80R17.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Al</t>
   </si>
   <si>
     <t>225-80R17.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Al</t>
   </si>
 </sst>
 </file>
@@ -692,40 +692,40 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2127069668866213</v>
+        <v>0.3248020896609223</v>
       </c>
       <c r="F2">
-        <v>0.09863084541182979</v>
+        <v>0.1220941402273373</v>
       </c>
       <c r="G2">
-        <v>0.02240959447844173</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.08870159263506186</v>
+        <v>0.1044503209620485</v>
       </c>
       <c r="J2">
-        <v>0.002834380685868628</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01047825558168749</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.004995991788587114</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1617046486310822</v>
+        <v>0.2341733479375807</v>
       </c>
       <c r="N2">
-        <v>0.06104055130028296</v>
+        <v>0.05529794011598577</v>
       </c>
       <c r="O2">
-        <v>0.004614461453189832</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.00201803711090926</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -737,55 +737,55 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.06757921243725445</v>
+        <v>0.06691683611263359</v>
       </c>
       <c r="U2">
-        <v>0.04099505719257693</v>
+        <v>0.0196780316423792</v>
       </c>
       <c r="V2">
-        <v>0.02274923940574862</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.002627297750365359</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.009587423839133254</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.001393273093452157</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.005764571114115846</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.01275205596089575</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.01483437447993228</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0006946681225420735</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.05962983970657044</v>
+        <v>0.05279117138378583</v>
       </c>
       <c r="AE2">
-        <v>0.04106151381231295</v>
+        <v>0.01979612195732694</v>
       </c>
       <c r="AF2">
-        <v>0.01660536206909148</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.02585628759214127</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.006207537190651822</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.001526960269653014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -802,37 +802,37 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1415922569922945</v>
+        <v>0.1851805191030753</v>
       </c>
       <c r="F3">
-        <v>0.003589283571538827</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1047785813913718</v>
+        <v>0.1254364719099683</v>
       </c>
       <c r="I3">
-        <v>0.1600127193876931</v>
+        <v>0.2150746537339016</v>
       </c>
       <c r="J3">
-        <v>0.004894497176005506</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.02977295733026968</v>
+        <v>0.003711610957952508</v>
       </c>
       <c r="M3">
-        <v>0.2096146787542453</v>
+        <v>0.2955725054939579</v>
       </c>
       <c r="N3">
-        <v>0.01234425148966898</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.04440259957954138</v>
+        <v>0.02745371284513421</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -847,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.06235320421401432</v>
+        <v>0.05658532638061822</v>
       </c>
       <c r="U3">
-        <v>0.02467626343441663</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.02684863933364152</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -877,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.05464202484741978</v>
+        <v>0.04407103498014771</v>
       </c>
       <c r="AE3">
-        <v>0.02174383895440429</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.03509823116582758</v>
+        <v>0.01235387245872521</v>
       </c>
       <c r="AG3">
-        <v>0.04878160162169749</v>
+        <v>0.03456029213651931</v>
       </c>
       <c r="AH3">
-        <v>0.01485437075594935</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -912,43 +912,43 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1459032944602688</v>
+        <v>0.2121180598463701</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1263637409743212</v>
+        <v>0.1767212370085235</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02250452532466309</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02266977236278513</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01642984683831916</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2256329181695096</v>
+        <v>0.3565520341126603</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02662061843060957</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01252770910362677</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -957,55 +957,55 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.07615914660033236</v>
+        <v>0.08577324610483877</v>
       </c>
       <c r="U4">
-        <v>0.04968869457500695</v>
+        <v>0.03782077362628369</v>
       </c>
       <c r="V4">
-        <v>0.01749534314789116</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01238631894466009</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.02212623445510462</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.004842417996872356</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.01238631894466009</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01844804397043702</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.02670897321014369</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.1011330495290401</v>
+        <v>0.1310146493013238</v>
       </c>
       <c r="AF4">
-        <v>0.01853461811044875</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>7.256078375389332E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.02346957843434962</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.01789627563319625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1022,40 +1022,40 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1235540490229708</v>
+        <v>0.1602742920277477</v>
       </c>
       <c r="F5">
-        <v>0.242091828412845</v>
+        <v>0.3605720260560824</v>
       </c>
       <c r="G5">
-        <v>0.01063765458933459</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0194069277310621</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.02282299073868249</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06004126313402935</v>
+        <v>0.05295435436010782</v>
       </c>
       <c r="M5">
-        <v>0.00281715681312533</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1154592514719948</v>
+        <v>0.1465962088442771</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.003958071575513147</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1064,55 +1064,55 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.006554720145677944</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.07703755903486988</v>
+        <v>0.08167363333880812</v>
       </c>
       <c r="U5">
-        <v>0.02546605472640359</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.02980550791041364</v>
+        <v>0.001863864145956357</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.01378415922730212</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.005461746682350133</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.02271565561168362</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.003162714641925902</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.1149599576381318</v>
+        <v>0.1457525333169319</v>
       </c>
       <c r="AE5">
-        <v>0.0537466767057477</v>
+        <v>0.04231815546453423</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.01308213168038198</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.03343392250555424</v>
+        <v>0.00799493244555438</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1132,37 +1132,37 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1867706865320108</v>
+        <v>0.2503320648630029</v>
       </c>
       <c r="F6">
-        <v>0.09549714414984097</v>
+        <v>0.1057199951812103</v>
       </c>
       <c r="G6">
-        <v>0.003451895100600371</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.04450690356453555</v>
+        <v>0.02493202495278605</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.001006741114362826</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05620356835582065</v>
+        <v>0.04346399883804985</v>
       </c>
       <c r="M6">
-        <v>0.2199572111014031</v>
+        <v>0.3029121650571091</v>
       </c>
       <c r="N6">
-        <v>0.002957731339256682</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.002442741628188215</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1177,55 +1177,55 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1379820371023241</v>
+        <v>0.173032253911602</v>
       </c>
       <c r="U6">
-        <v>0.03093582241426343</v>
+        <v>0.003430261333893199</v>
       </c>
       <c r="V6">
-        <v>0.008995219297606495</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.03661983945777809</v>
+        <v>0.01243591014861271</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.005065952712430966</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01047751565178345</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.008456001261579549</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001620549746577602</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.07064339767375213</v>
+        <v>0.06634219057925066</v>
       </c>
       <c r="AE6">
-        <v>0.03975243500873663</v>
+        <v>0.01739913513448315</v>
       </c>
       <c r="AF6">
-        <v>0.0192344437176266</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.007423015390198904</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.006630684982795576</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.003368462696527795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1239,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2274856314961933</v>
+        <v>0.3189462854698905</v>
       </c>
       <c r="E7">
-        <v>0.0988652674613467</v>
+        <v>0.1131125795837402</v>
       </c>
       <c r="F7">
-        <v>0.07867306699129491</v>
+        <v>0.08079860283569747</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006486604262561357</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.06597913157325294</v>
+        <v>0.06048424757025017</v>
       </c>
       <c r="L7">
-        <v>0.05355995890671873</v>
+        <v>0.04060960055634377</v>
       </c>
       <c r="M7">
-        <v>0.04533892017639049</v>
+        <v>0.02745331009802582</v>
       </c>
       <c r="N7">
-        <v>0.09233935795941298</v>
+        <v>0.1026690378697956</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.01122016559994176</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1284,40 +1284,40 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.08065408695237505</v>
+        <v>0.08396886815941473</v>
       </c>
       <c r="T7">
-        <v>0.0527724747548186</v>
+        <v>0.03934937413319119</v>
       </c>
       <c r="U7">
-        <v>0.001615430215051334</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.001775568777641682</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.01689985096402499</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.002206221981601382</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.00246737090452302</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.06046929184136277</v>
+        <v>0.05166674235353002</v>
       </c>
       <c r="AD7">
-        <v>0.07876226700051531</v>
+        <v>0.08094135137012037</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.005229799166370358</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.01719953301460225</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1349,43 +1349,43 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01211027514005133</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1463663152119331</v>
+        <v>0.2077752635767489</v>
       </c>
       <c r="F8">
-        <v>0.1350728239187983</v>
+        <v>0.1877274635107944</v>
       </c>
       <c r="G8">
-        <v>0.07774678660923733</v>
+        <v>0.0859643413083496</v>
       </c>
       <c r="H8">
-        <v>0.01027179822572628</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.03033127485114287</v>
+        <v>0.00179402806526632</v>
       </c>
       <c r="J8">
-        <v>0.009427823877266046</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1268182064700461</v>
+        <v>0.1730741631328926</v>
       </c>
       <c r="M8">
-        <v>0.0242752244169815</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.07299074103825254</v>
+        <v>0.07752158005438445</v>
       </c>
       <c r="O8">
-        <v>0.06341427423556893</v>
+        <v>0.0605217801860162</v>
       </c>
       <c r="P8">
-        <v>0.01185932015575203</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1397,52 +1397,52 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.04900926144267655</v>
+        <v>0.03495051892379038</v>
       </c>
       <c r="U8">
-        <v>0.05005439048978034</v>
+        <v>0.03680579446574746</v>
       </c>
       <c r="V8">
-        <v>0.01620823267236893</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0.002498320409464351</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.002388266406065103</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.010417597820293</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.005525786463799154</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.07681431998779739</v>
+        <v>0.08430906005744292</v>
       </c>
       <c r="AE8">
-        <v>0.05723694471463865</v>
+        <v>0.0495560067185668</v>
       </c>
       <c r="AF8">
-        <v>0.004615876755307937</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.0007674972146509127</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.003778641472400886</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1459,22 +1459,22 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.224549329519376</v>
+        <v>0.2554116767069637</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1973733272313717</v>
+        <v>0.2219770277599049</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.03973425496279871</v>
+        <v>0.02803359981258468</v>
       </c>
       <c r="I9">
-        <v>0.01397019741719166</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1483,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1772512583250865</v>
+        <v>0.197220836512926</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1345461961958953</v>
+        <v>0.1446807776249379</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1504,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.02636204221616916</v>
+        <v>0.01158175991020525</v>
       </c>
       <c r="T9">
-        <v>0.03349807448900559</v>
+        <v>0.02036122391630315</v>
       </c>
       <c r="U9">
-        <v>0.0263035904383742</v>
+        <v>0.01150984665930857</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.0252124958097741</v>
+        <v>0.01016747240246768</v>
       </c>
       <c r="AD9">
-        <v>0.09746176090573173</v>
+        <v>0.09905577869439829</v>
       </c>
       <c r="AE9">
-        <v>0.003737472489225472</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1569,43 +1569,43 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1538504807131003</v>
+        <v>0.1846946096936099</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1596642341865999</v>
+        <v>0.1929732705612298</v>
       </c>
       <c r="G10">
-        <v>0.02889464729607671</v>
+        <v>0.00676016974777067</v>
       </c>
       <c r="H10">
-        <v>0.02025173152346036</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01560214951521648</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.006904080907151424</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1529763014016279</v>
+        <v>0.1834497970110361</v>
       </c>
       <c r="M10">
-        <v>0.003548758260476117</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1790314585588497</v>
+        <v>0.2205517847269574</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.001356325502572323</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1614,13 +1614,13 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.01127637165756063</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.08872827755956994</v>
+        <v>0.09196198225803517</v>
       </c>
       <c r="U10">
-        <v>0.02817054982547043</v>
+        <v>0.005729070403504494</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.004322391252380375</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1644,13 +1644,13 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.02337155717107449</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.1041198940144266</v>
+        <v>0.1138793155978564</v>
       </c>
       <c r="AE10">
-        <v>0.01162441764944952</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.006306373004936721</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1682,40 +1682,40 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1874767773268845</v>
+        <v>0.2687884896196472</v>
       </c>
       <c r="F11">
-        <v>0.1262590159419168</v>
+        <v>0.1645078571674811</v>
       </c>
       <c r="G11">
-        <v>0.07615149604906249</v>
+        <v>0.07915282707780816</v>
       </c>
       <c r="H11">
-        <v>0.0112157930349232</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.008263472450238804</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.003301417528353657</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.007682651997925804</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1228605233532873</v>
+        <v>0.158718737335123</v>
       </c>
       <c r="M11">
-        <v>0.01175396962012543</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.06094950138474729</v>
+        <v>0.05325717878449251</v>
       </c>
       <c r="O11">
-        <v>0.0766426800260539</v>
+        <v>0.07998952830000627</v>
       </c>
       <c r="P11">
-        <v>0.01008211862815695</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1727,43 +1727,43 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.05171517489825327</v>
+        <v>0.03752708045198724</v>
       </c>
       <c r="U11">
-        <v>0.0572242084104311</v>
+        <v>0.04691137490923524</v>
       </c>
       <c r="V11">
-        <v>0.01359695373223934</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.00375802268334008</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.005336754379508112</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.000919475117589948</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.01096747962367951</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.006259812806766983</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.06282068488938651</v>
+        <v>0.05644462299812154</v>
       </c>
       <c r="AE11">
-        <v>0.06179785921607003</v>
+        <v>0.05470230335609776</v>
       </c>
       <c r="AF11">
-        <v>0.004635531801567031</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1772,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.005356893143387767</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.01297173195610424</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1915,100 +1915,100 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2127069668866213</v>
+        <v>0.3248020896609223</v>
       </c>
       <c r="F2">
-        <v>0.3113378122984511</v>
+        <v>0.4468962298882596</v>
       </c>
       <c r="G2">
-        <v>0.3337474067768929</v>
+        <v>0.4468962298882596</v>
       </c>
       <c r="H2">
-        <v>0.3337474067768929</v>
+        <v>0.4468962298882596</v>
       </c>
       <c r="I2">
-        <v>0.4224489994119547</v>
+        <v>0.551346550850308</v>
       </c>
       <c r="J2">
-        <v>0.4252833800978233</v>
+        <v>0.551346550850308</v>
       </c>
       <c r="K2">
-        <v>0.4357616356795108</v>
+        <v>0.551346550850308</v>
       </c>
       <c r="L2">
-        <v>0.4407576274680979</v>
+        <v>0.551346550850308</v>
       </c>
       <c r="M2">
-        <v>0.6024622760991801</v>
+        <v>0.7855198987878887</v>
       </c>
       <c r="N2">
-        <v>0.6635028273994631</v>
+        <v>0.8408178389038745</v>
       </c>
       <c r="O2">
-        <v>0.6681172888526529</v>
+        <v>0.8408178389038745</v>
       </c>
       <c r="P2">
-        <v>0.6701353259635622</v>
+        <v>0.8408178389038745</v>
       </c>
       <c r="Q2">
-        <v>0.6701353259635622</v>
+        <v>0.8408178389038745</v>
       </c>
       <c r="R2">
-        <v>0.6701353259635622</v>
+        <v>0.8408178389038745</v>
       </c>
       <c r="S2">
-        <v>0.6701353259635622</v>
+        <v>0.8408178389038745</v>
       </c>
       <c r="T2">
-        <v>0.7377145384008166</v>
+        <v>0.9077346750165081</v>
       </c>
       <c r="U2">
-        <v>0.7787095955933935</v>
+        <v>0.9274127066588873</v>
       </c>
       <c r="V2">
-        <v>0.8014588349991421</v>
+        <v>0.9274127066588873</v>
       </c>
       <c r="W2">
-        <v>0.8040861327495075</v>
+        <v>0.9274127066588873</v>
       </c>
       <c r="X2">
-        <v>0.8136735565886407</v>
+        <v>0.9274127066588873</v>
       </c>
       <c r="Y2">
-        <v>0.8150668296820929</v>
+        <v>0.9274127066588873</v>
       </c>
       <c r="Z2">
-        <v>0.8208314007962088</v>
+        <v>0.9274127066588873</v>
       </c>
       <c r="AA2">
-        <v>0.8335834567571045</v>
+        <v>0.9274127066588873</v>
       </c>
       <c r="AB2">
-        <v>0.8484178312370368</v>
+        <v>0.9274127066588873</v>
       </c>
       <c r="AC2">
-        <v>0.8491124993595789</v>
+        <v>0.9274127066588873</v>
       </c>
       <c r="AD2">
-        <v>0.9087423390661493</v>
+        <v>0.9802038780426732</v>
       </c>
       <c r="AE2">
-        <v>0.9498038528784623</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9664092149475537</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.992265502539695</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9984730397303468</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9984730397303468</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2025,91 +2025,91 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1415922569922945</v>
+        <v>0.1851805191030753</v>
       </c>
       <c r="F3">
-        <v>0.1451815405638333</v>
+        <v>0.1851805191030753</v>
       </c>
       <c r="G3">
-        <v>0.1451815405638333</v>
+        <v>0.1851805191030753</v>
       </c>
       <c r="H3">
-        <v>0.2499601219552051</v>
+        <v>0.3106169910130435</v>
       </c>
       <c r="I3">
-        <v>0.4099728413428982</v>
+        <v>0.5256916447469451</v>
       </c>
       <c r="J3">
-        <v>0.4148673385189037</v>
+        <v>0.5256916447469451</v>
       </c>
       <c r="K3">
-        <v>0.4148673385189037</v>
+        <v>0.5256916447469451</v>
       </c>
       <c r="L3">
-        <v>0.4446402958491734</v>
+        <v>0.5294032557048975</v>
       </c>
       <c r="M3">
-        <v>0.6542549746034187</v>
+        <v>0.8249757611988554</v>
       </c>
       <c r="N3">
-        <v>0.6665992260930877</v>
+        <v>0.8249757611988554</v>
       </c>
       <c r="O3">
-        <v>0.7110018256726292</v>
+        <v>0.8524294740439896</v>
       </c>
       <c r="P3">
-        <v>0.7110018256726292</v>
+        <v>0.8524294740439896</v>
       </c>
       <c r="Q3">
-        <v>0.7110018256726292</v>
+        <v>0.8524294740439896</v>
       </c>
       <c r="R3">
-        <v>0.7110018256726292</v>
+        <v>0.8524294740439896</v>
       </c>
       <c r="S3">
-        <v>0.7110018256726292</v>
+        <v>0.8524294740439896</v>
       </c>
       <c r="T3">
-        <v>0.7733550298866435</v>
+        <v>0.9090148004246078</v>
       </c>
       <c r="U3">
-        <v>0.7980312933210602</v>
+        <v>0.9090148004246078</v>
       </c>
       <c r="V3">
-        <v>0.8248799326547017</v>
+        <v>0.9090148004246078</v>
       </c>
       <c r="W3">
-        <v>0.8248799326547017</v>
+        <v>0.9090148004246078</v>
       </c>
       <c r="X3">
-        <v>0.8248799326547017</v>
+        <v>0.9090148004246078</v>
       </c>
       <c r="Y3">
-        <v>0.8248799326547017</v>
+        <v>0.9090148004246078</v>
       </c>
       <c r="Z3">
-        <v>0.8248799326547017</v>
+        <v>0.9090148004246078</v>
       </c>
       <c r="AA3">
-        <v>0.8248799326547017</v>
+        <v>0.9090148004246078</v>
       </c>
       <c r="AB3">
-        <v>0.8248799326547017</v>
+        <v>0.9090148004246078</v>
       </c>
       <c r="AC3">
-        <v>0.8248799326547017</v>
+        <v>0.9090148004246078</v>
       </c>
       <c r="AD3">
-        <v>0.8795219575021215</v>
+        <v>0.9530858354047556</v>
       </c>
       <c r="AE3">
-        <v>0.9012657964565257</v>
+        <v>0.9530858354047556</v>
       </c>
       <c r="AF3">
-        <v>0.9363640276223533</v>
+        <v>0.9654397078634808</v>
       </c>
       <c r="AG3">
-        <v>0.9851456292440508</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2135,97 +2135,97 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1459032944602688</v>
+        <v>0.2121180598463701</v>
       </c>
       <c r="F4">
-        <v>0.1459032944602688</v>
+        <v>0.2121180598463701</v>
       </c>
       <c r="G4">
-        <v>0.27226703543459</v>
+        <v>0.3888392968548936</v>
       </c>
       <c r="H4">
-        <v>0.27226703543459</v>
+        <v>0.3888392968548936</v>
       </c>
       <c r="I4">
-        <v>0.294771560759253</v>
+        <v>0.3888392968548936</v>
       </c>
       <c r="J4">
-        <v>0.3174413331220381</v>
+        <v>0.3888392968548936</v>
       </c>
       <c r="K4">
-        <v>0.3174413331220381</v>
+        <v>0.3888392968548936</v>
       </c>
       <c r="L4">
-        <v>0.3338711799603573</v>
+        <v>0.3888392968548936</v>
       </c>
       <c r="M4">
-        <v>0.5595040981298669</v>
+        <v>0.7453913309675539</v>
       </c>
       <c r="N4">
-        <v>0.5595040981298669</v>
+        <v>0.7453913309675539</v>
       </c>
       <c r="O4">
-        <v>0.5861247165604765</v>
+        <v>0.7453913309675539</v>
       </c>
       <c r="P4">
-        <v>0.5861247165604765</v>
+        <v>0.7453913309675539</v>
       </c>
       <c r="Q4">
-        <v>0.5986524256641033</v>
+        <v>0.7453913309675539</v>
       </c>
       <c r="R4">
-        <v>0.5986524256641033</v>
+        <v>0.7453913309675539</v>
       </c>
       <c r="S4">
-        <v>0.5986524256641033</v>
+        <v>0.7453913309675539</v>
       </c>
       <c r="T4">
-        <v>0.6748115722644357</v>
+        <v>0.8311645770723928</v>
       </c>
       <c r="U4">
-        <v>0.7245002668394426</v>
+        <v>0.8689853506986764</v>
       </c>
       <c r="V4">
-        <v>0.7419956099873337</v>
+        <v>0.8689853506986764</v>
       </c>
       <c r="W4">
-        <v>0.7543819289319939</v>
+        <v>0.8689853506986764</v>
       </c>
       <c r="X4">
-        <v>0.7765081633870985</v>
+        <v>0.8689853506986764</v>
       </c>
       <c r="Y4">
-        <v>0.7813505813839708</v>
+        <v>0.8689853506986764</v>
       </c>
       <c r="Z4">
-        <v>0.7813505813839708</v>
+        <v>0.8689853506986764</v>
       </c>
       <c r="AA4">
-        <v>0.793736900328631</v>
+        <v>0.8689853506986764</v>
       </c>
       <c r="AB4">
-        <v>0.812184944299068</v>
+        <v>0.8689853506986764</v>
       </c>
       <c r="AC4">
-        <v>0.812184944299068</v>
+        <v>0.8689853506986764</v>
       </c>
       <c r="AD4">
-        <v>0.8388939175092116</v>
+        <v>0.8689853506986764</v>
       </c>
       <c r="AE4">
-        <v>0.9400269670382516</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9585615851487004</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9586341459324542</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9821037243668038</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9821037243668038</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
         <v>1</v>
@@ -2245,94 +2245,94 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1235540490229708</v>
+        <v>0.1602742920277477</v>
       </c>
       <c r="F5">
-        <v>0.3656458774358158</v>
+        <v>0.5208463180838301</v>
       </c>
       <c r="G5">
-        <v>0.3762835320251504</v>
+        <v>0.5208463180838301</v>
       </c>
       <c r="H5">
-        <v>0.3762835320251504</v>
+        <v>0.5208463180838301</v>
       </c>
       <c r="I5">
-        <v>0.3956904597562125</v>
+        <v>0.5208463180838301</v>
       </c>
       <c r="J5">
-        <v>0.3956904597562125</v>
+        <v>0.5208463180838301</v>
       </c>
       <c r="K5">
-        <v>0.418513450494895</v>
+        <v>0.5208463180838301</v>
       </c>
       <c r="L5">
-        <v>0.4785547136289243</v>
+        <v>0.573800672443938</v>
       </c>
       <c r="M5">
-        <v>0.4813718704420497</v>
+        <v>0.573800672443938</v>
       </c>
       <c r="N5">
-        <v>0.5968311219140445</v>
+        <v>0.720396881288215</v>
       </c>
       <c r="O5">
-        <v>0.5968311219140445</v>
+        <v>0.720396881288215</v>
       </c>
       <c r="P5">
-        <v>0.6007891934895577</v>
+        <v>0.720396881288215</v>
       </c>
       <c r="Q5">
-        <v>0.6007891934895577</v>
+        <v>0.720396881288215</v>
       </c>
       <c r="R5">
-        <v>0.6007891934895577</v>
+        <v>0.720396881288215</v>
       </c>
       <c r="S5">
-        <v>0.6073439136352357</v>
+        <v>0.720396881288215</v>
       </c>
       <c r="T5">
-        <v>0.6843814726701055</v>
+        <v>0.8020705146270231</v>
       </c>
       <c r="U5">
-        <v>0.7098475273965091</v>
+        <v>0.8020705146270231</v>
       </c>
       <c r="V5">
-        <v>0.7396530353069227</v>
+        <v>0.8039343787729795</v>
       </c>
       <c r="W5">
-        <v>0.7396530353069227</v>
+        <v>0.8039343787729795</v>
       </c>
       <c r="X5">
-        <v>0.7534371945342249</v>
+        <v>0.8039343787729795</v>
       </c>
       <c r="Y5">
-        <v>0.7534371945342249</v>
+        <v>0.8039343787729795</v>
       </c>
       <c r="Z5">
-        <v>0.758898941216575</v>
+        <v>0.8039343787729795</v>
       </c>
       <c r="AA5">
-        <v>0.7816145968282586</v>
+        <v>0.8039343787729795</v>
       </c>
       <c r="AB5">
-        <v>0.7816145968282586</v>
+        <v>0.8039343787729795</v>
       </c>
       <c r="AC5">
-        <v>0.7847773114701845</v>
+        <v>0.8039343787729795</v>
       </c>
       <c r="AD5">
-        <v>0.8997372691083163</v>
+        <v>0.9496869120899114</v>
       </c>
       <c r="AE5">
-        <v>0.953483945814064</v>
+        <v>0.9920050675544456</v>
       </c>
       <c r="AF5">
-        <v>0.953483945814064</v>
+        <v>0.9920050675544456</v>
       </c>
       <c r="AG5">
-        <v>0.966566077494446</v>
+        <v>0.9920050675544456</v>
       </c>
       <c r="AH5">
-        <v>0.966566077494446</v>
+        <v>0.9920050675544456</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2355,100 +2355,100 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1867706865320108</v>
+        <v>0.2503320648630029</v>
       </c>
       <c r="F6">
-        <v>0.2822678306818517</v>
+        <v>0.3560520600442131</v>
       </c>
       <c r="G6">
-        <v>0.2857197257824521</v>
+        <v>0.3560520600442131</v>
       </c>
       <c r="H6">
-        <v>0.2857197257824521</v>
+        <v>0.3560520600442131</v>
       </c>
       <c r="I6">
-        <v>0.3302266293469877</v>
+        <v>0.3809840849969992</v>
       </c>
       <c r="J6">
-        <v>0.3302266293469877</v>
+        <v>0.3809840849969992</v>
       </c>
       <c r="K6">
-        <v>0.3312333704613505</v>
+        <v>0.3809840849969992</v>
       </c>
       <c r="L6">
-        <v>0.3874369388171711</v>
+        <v>0.4244480838350491</v>
       </c>
       <c r="M6">
-        <v>0.6073941499185742</v>
+        <v>0.7273602488921582</v>
       </c>
       <c r="N6">
-        <v>0.6103518812578309</v>
+        <v>0.7273602488921582</v>
       </c>
       <c r="O6">
-        <v>0.6127946228860192</v>
+        <v>0.7273602488921582</v>
       </c>
       <c r="P6">
-        <v>0.6127946228860192</v>
+        <v>0.7273602488921582</v>
       </c>
       <c r="Q6">
-        <v>0.6127946228860192</v>
+        <v>0.7273602488921582</v>
       </c>
       <c r="R6">
-        <v>0.6127946228860192</v>
+        <v>0.7273602488921582</v>
       </c>
       <c r="S6">
-        <v>0.6127946228860192</v>
+        <v>0.7273602488921582</v>
       </c>
       <c r="T6">
-        <v>0.7507766599883432</v>
+        <v>0.9003925028037603</v>
       </c>
       <c r="U6">
-        <v>0.7817124824026066</v>
+        <v>0.9038227641376535</v>
       </c>
       <c r="V6">
-        <v>0.7907077017002131</v>
+        <v>0.9038227641376535</v>
       </c>
       <c r="W6">
-        <v>0.7907077017002131</v>
+        <v>0.9038227641376535</v>
       </c>
       <c r="X6">
-        <v>0.8273275411579912</v>
+        <v>0.9162586742862662</v>
       </c>
       <c r="Y6">
-        <v>0.8273275411579912</v>
+        <v>0.9162586742862662</v>
       </c>
       <c r="Z6">
-        <v>0.8323934938704222</v>
+        <v>0.9162586742862662</v>
       </c>
       <c r="AA6">
-        <v>0.8428710095222056</v>
+        <v>0.9162586742862662</v>
       </c>
       <c r="AB6">
-        <v>0.8513270107837851</v>
+        <v>0.9162586742862662</v>
       </c>
       <c r="AC6">
-        <v>0.8529475605303627</v>
+        <v>0.9162586742862662</v>
       </c>
       <c r="AD6">
-        <v>0.9235909582041149</v>
+        <v>0.9826008648655168</v>
       </c>
       <c r="AE6">
-        <v>0.9633433932128515</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>0.9825778369304781</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>0.9900008523206769</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.9966315373034725</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>0.9966315373034725</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2462,97 +2462,97 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2274856314961933</v>
+        <v>0.3189462854698905</v>
       </c>
       <c r="E7">
-        <v>0.32635089895754</v>
+        <v>0.4320588650536307</v>
       </c>
       <c r="F7">
-        <v>0.4050239659488349</v>
+        <v>0.5128574678893282</v>
       </c>
       <c r="G7">
-        <v>0.4050239659488349</v>
+        <v>0.5128574678893282</v>
       </c>
       <c r="H7">
-        <v>0.4115105702113963</v>
+        <v>0.5128574678893282</v>
       </c>
       <c r="I7">
-        <v>0.4115105702113963</v>
+        <v>0.5128574678893282</v>
       </c>
       <c r="J7">
-        <v>0.4115105702113963</v>
+        <v>0.5128574678893282</v>
       </c>
       <c r="K7">
-        <v>0.4774897017846492</v>
+        <v>0.5733417154595783</v>
       </c>
       <c r="L7">
-        <v>0.5310496606913679</v>
+        <v>0.6139513160159221</v>
       </c>
       <c r="M7">
-        <v>0.5763885808677585</v>
+        <v>0.6414046261139479</v>
       </c>
       <c r="N7">
-        <v>0.6687279388271714</v>
+        <v>0.7440736639837435</v>
       </c>
       <c r="O7">
-        <v>0.6687279388271714</v>
+        <v>0.7440736639837435</v>
       </c>
       <c r="P7">
-        <v>0.6799481044271132</v>
+        <v>0.7440736639837435</v>
       </c>
       <c r="Q7">
-        <v>0.6799481044271132</v>
+        <v>0.7440736639837435</v>
       </c>
       <c r="R7">
-        <v>0.6799481044271132</v>
+        <v>0.7440736639837435</v>
       </c>
       <c r="S7">
-        <v>0.7606021913794883</v>
+        <v>0.8280425321431583</v>
       </c>
       <c r="T7">
-        <v>0.8133746661343069</v>
+        <v>0.8673919062763494</v>
       </c>
       <c r="U7">
-        <v>0.8149900963493582</v>
+        <v>0.8673919062763494</v>
       </c>
       <c r="V7">
-        <v>0.8167656651269999</v>
+        <v>0.8673919062763494</v>
       </c>
       <c r="W7">
-        <v>0.8167656651269999</v>
+        <v>0.8673919062763494</v>
       </c>
       <c r="X7">
-        <v>0.8336655160910249</v>
+        <v>0.8673919062763494</v>
       </c>
       <c r="Y7">
-        <v>0.8336655160910249</v>
+        <v>0.8673919062763494</v>
       </c>
       <c r="Z7">
-        <v>0.8358717380726263</v>
+        <v>0.8673919062763494</v>
       </c>
       <c r="AA7">
-        <v>0.8358717380726263</v>
+        <v>0.8673919062763494</v>
       </c>
       <c r="AB7">
-        <v>0.8383391089771492</v>
+        <v>0.8673919062763494</v>
       </c>
       <c r="AC7">
-        <v>0.898808400818512</v>
+        <v>0.9190586486298794</v>
       </c>
       <c r="AD7">
-        <v>0.9775706678190272</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE7">
-        <v>0.9775706678190272</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF7">
-        <v>0.9775706678190272</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG7">
-        <v>0.9775706678190272</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH7">
-        <v>0.9828004669853976</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI7">
         <v>0.9999999999999998</v>
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01211027514005133</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1584765903519845</v>
+        <v>0.2077752635767489</v>
       </c>
       <c r="F8">
-        <v>0.2935494142707827</v>
+        <v>0.3955027270875433</v>
       </c>
       <c r="G8">
-        <v>0.3712962008800201</v>
+        <v>0.4814670683958929</v>
       </c>
       <c r="H8">
-        <v>0.3815679991057463</v>
+        <v>0.4814670683958929</v>
       </c>
       <c r="I8">
-        <v>0.4118992739568892</v>
+        <v>0.4832610964611592</v>
       </c>
       <c r="J8">
-        <v>0.4213270978341553</v>
+        <v>0.4832610964611592</v>
       </c>
       <c r="K8">
-        <v>0.4213270978341553</v>
+        <v>0.4832610964611592</v>
       </c>
       <c r="L8">
-        <v>0.5481453043042014</v>
+        <v>0.6563352595940519</v>
       </c>
       <c r="M8">
-        <v>0.5724205287211829</v>
+        <v>0.6563352595940519</v>
       </c>
       <c r="N8">
-        <v>0.6454112697594354</v>
+        <v>0.7338568396484364</v>
       </c>
       <c r="O8">
-        <v>0.7088255439950043</v>
+        <v>0.7943786198344526</v>
       </c>
       <c r="P8">
-        <v>0.7206848641507564</v>
+        <v>0.7943786198344526</v>
       </c>
       <c r="Q8">
-        <v>0.7206848641507564</v>
+        <v>0.7943786198344526</v>
       </c>
       <c r="R8">
-        <v>0.7206848641507564</v>
+        <v>0.7943786198344526</v>
       </c>
       <c r="S8">
-        <v>0.7206848641507564</v>
+        <v>0.7943786198344526</v>
       </c>
       <c r="T8">
-        <v>0.769694125593433</v>
+        <v>0.829329138758243</v>
       </c>
       <c r="U8">
-        <v>0.8197485160832133</v>
+        <v>0.8661349332239905</v>
       </c>
       <c r="V8">
-        <v>0.8359567487555822</v>
+        <v>0.8661349332239905</v>
       </c>
       <c r="W8">
-        <v>0.8359567487555822</v>
+        <v>0.8661349332239905</v>
       </c>
       <c r="X8">
-        <v>0.8384550691650466</v>
+        <v>0.8661349332239905</v>
       </c>
       <c r="Y8">
-        <v>0.8384550691650466</v>
+        <v>0.8661349332239905</v>
       </c>
       <c r="Z8">
-        <v>0.8408433355711118</v>
+        <v>0.8661349332239905</v>
       </c>
       <c r="AA8">
-        <v>0.8512609333914047</v>
+        <v>0.8661349332239905</v>
       </c>
       <c r="AB8">
-        <v>0.8512609333914047</v>
+        <v>0.8661349332239905</v>
       </c>
       <c r="AC8">
-        <v>0.8567867198552039</v>
+        <v>0.8661349332239905</v>
       </c>
       <c r="AD8">
-        <v>0.9336010398430014</v>
+        <v>0.9504439932814334</v>
       </c>
       <c r="AE8">
-        <v>0.9908379845576401</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.995453861312948</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9962213585275989</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9962213585275989</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,85 +2682,85 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.224549329519376</v>
+        <v>0.2554116767069637</v>
       </c>
       <c r="E9">
-        <v>0.224549329519376</v>
+        <v>0.2554116767069637</v>
       </c>
       <c r="F9">
-        <v>0.4219226567507476</v>
+        <v>0.4773887044668687</v>
       </c>
       <c r="G9">
-        <v>0.4219226567507476</v>
+        <v>0.4773887044668687</v>
       </c>
       <c r="H9">
-        <v>0.4616569117135463</v>
+        <v>0.5054223042794533</v>
       </c>
       <c r="I9">
-        <v>0.475627109130738</v>
+        <v>0.5054223042794533</v>
       </c>
       <c r="J9">
-        <v>0.475627109130738</v>
+        <v>0.5054223042794533</v>
       </c>
       <c r="K9">
-        <v>0.475627109130738</v>
+        <v>0.5054223042794533</v>
       </c>
       <c r="L9">
-        <v>0.6528783674558245</v>
+        <v>0.7026431407923793</v>
       </c>
       <c r="M9">
-        <v>0.6528783674558245</v>
+        <v>0.7026431407923793</v>
       </c>
       <c r="N9">
-        <v>0.7874245636517199</v>
+        <v>0.8473239184173172</v>
       </c>
       <c r="O9">
-        <v>0.7874245636517199</v>
+        <v>0.8473239184173172</v>
       </c>
       <c r="P9">
-        <v>0.7874245636517199</v>
+        <v>0.8473239184173172</v>
       </c>
       <c r="Q9">
-        <v>0.7874245636517199</v>
+        <v>0.8473239184173172</v>
       </c>
       <c r="R9">
-        <v>0.7874245636517199</v>
+        <v>0.8473239184173172</v>
       </c>
       <c r="S9">
-        <v>0.813786605867889</v>
+        <v>0.8589056783275225</v>
       </c>
       <c r="T9">
-        <v>0.8472846803568945</v>
+        <v>0.8792669022438256</v>
       </c>
       <c r="U9">
-        <v>0.8735882707952687</v>
+        <v>0.8907767489031342</v>
       </c>
       <c r="V9">
-        <v>0.8735882707952687</v>
+        <v>0.8907767489031342</v>
       </c>
       <c r="W9">
-        <v>0.8735882707952687</v>
+        <v>0.8907767489031342</v>
       </c>
       <c r="X9">
-        <v>0.8735882707952687</v>
+        <v>0.8907767489031342</v>
       </c>
       <c r="Y9">
-        <v>0.8735882707952687</v>
+        <v>0.8907767489031342</v>
       </c>
       <c r="Z9">
-        <v>0.8735882707952687</v>
+        <v>0.8907767489031342</v>
       </c>
       <c r="AA9">
-        <v>0.8735882707952687</v>
+        <v>0.8907767489031342</v>
       </c>
       <c r="AB9">
-        <v>0.8735882707952687</v>
+        <v>0.8907767489031342</v>
       </c>
       <c r="AC9">
-        <v>0.8988007666050428</v>
+        <v>0.9009442213056018</v>
       </c>
       <c r="AD9">
-        <v>0.9962625275107746</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -2792,103 +2792,103 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1538504807131003</v>
+        <v>0.1846946096936099</v>
       </c>
       <c r="E10">
-        <v>0.1538504807131003</v>
+        <v>0.1846946096936099</v>
       </c>
       <c r="F10">
-        <v>0.3135147148997002</v>
+        <v>0.3776678802548397</v>
       </c>
       <c r="G10">
-        <v>0.3424093621957769</v>
+        <v>0.3844280500026103</v>
       </c>
       <c r="H10">
-        <v>0.3626610937192373</v>
+        <v>0.3844280500026103</v>
       </c>
       <c r="I10">
-        <v>0.3626610937192373</v>
+        <v>0.3844280500026103</v>
       </c>
       <c r="J10">
-        <v>0.3782632432344538</v>
+        <v>0.3844280500026103</v>
       </c>
       <c r="K10">
-        <v>0.3851673241416052</v>
+        <v>0.3844280500026103</v>
       </c>
       <c r="L10">
-        <v>0.538143625543233</v>
+        <v>0.5678778470136465</v>
       </c>
       <c r="M10">
-        <v>0.5416923838037091</v>
+        <v>0.5678778470136465</v>
       </c>
       <c r="N10">
-        <v>0.7207238423625588</v>
+        <v>0.7884296317406039</v>
       </c>
       <c r="O10">
-        <v>0.7207238423625588</v>
+        <v>0.7884296317406039</v>
       </c>
       <c r="P10">
-        <v>0.7220801678651312</v>
+        <v>0.7884296317406039</v>
       </c>
       <c r="Q10">
-        <v>0.7220801678651312</v>
+        <v>0.7884296317406039</v>
       </c>
       <c r="R10">
-        <v>0.7220801678651312</v>
+        <v>0.7884296317406039</v>
       </c>
       <c r="S10">
-        <v>0.7333565395226919</v>
+        <v>0.7884296317406039</v>
       </c>
       <c r="T10">
-        <v>0.8220848170822618</v>
+        <v>0.8803916139986391</v>
       </c>
       <c r="U10">
-        <v>0.8502553669077322</v>
+        <v>0.8861206844021435</v>
       </c>
       <c r="V10">
-        <v>0.8502553669077322</v>
+        <v>0.8861206844021435</v>
       </c>
       <c r="W10">
-        <v>0.8502553669077322</v>
+        <v>0.8861206844021435</v>
       </c>
       <c r="X10">
-        <v>0.8502553669077322</v>
+        <v>0.8861206844021435</v>
       </c>
       <c r="Y10">
-        <v>0.8502553669077322</v>
+        <v>0.8861206844021435</v>
       </c>
       <c r="Z10">
-        <v>0.8545777581601126</v>
+        <v>0.8861206844021435</v>
       </c>
       <c r="AA10">
-        <v>0.8545777581601126</v>
+        <v>0.8861206844021435</v>
       </c>
       <c r="AB10">
-        <v>0.8545777581601126</v>
+        <v>0.8861206844021435</v>
       </c>
       <c r="AC10">
-        <v>0.8779493153311871</v>
+        <v>0.8861206844021435</v>
       </c>
       <c r="AD10">
-        <v>0.9820692093456137</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE10">
-        <v>0.9936936269950633</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF10">
-        <v>0.9936936269950633</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG10">
-        <v>0.9936936269950633</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.9936936269950633</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2905,97 +2905,97 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1874767773268845</v>
+        <v>0.2687884896196472</v>
       </c>
       <c r="F11">
-        <v>0.3137357932688012</v>
+        <v>0.4332963467871284</v>
       </c>
       <c r="G11">
-        <v>0.3898872893178638</v>
+        <v>0.5124491738649365</v>
       </c>
       <c r="H11">
-        <v>0.401103082352787</v>
+        <v>0.5124491738649365</v>
       </c>
       <c r="I11">
-        <v>0.4093665548030258</v>
+        <v>0.5124491738649365</v>
       </c>
       <c r="J11">
-        <v>0.4126679723313794</v>
+        <v>0.5124491738649365</v>
       </c>
       <c r="K11">
-        <v>0.4203506243293052</v>
+        <v>0.5124491738649365</v>
       </c>
       <c r="L11">
-        <v>0.5432111476825925</v>
+        <v>0.6711679112000595</v>
       </c>
       <c r="M11">
-        <v>0.5549651173027179</v>
+        <v>0.6711679112000595</v>
       </c>
       <c r="N11">
-        <v>0.6159146186874652</v>
+        <v>0.724425089984552</v>
       </c>
       <c r="O11">
-        <v>0.6925572987135191</v>
+        <v>0.8044146182845583</v>
       </c>
       <c r="P11">
-        <v>0.7026394173416761</v>
+        <v>0.8044146182845583</v>
       </c>
       <c r="Q11">
-        <v>0.7026394173416761</v>
+        <v>0.8044146182845583</v>
       </c>
       <c r="R11">
-        <v>0.7026394173416761</v>
+        <v>0.8044146182845583</v>
       </c>
       <c r="S11">
-        <v>0.7026394173416761</v>
+        <v>0.8044146182845583</v>
       </c>
       <c r="T11">
-        <v>0.7543545922399294</v>
+        <v>0.8419416987365456</v>
       </c>
       <c r="U11">
-        <v>0.8115788006503605</v>
+        <v>0.8888530736457808</v>
       </c>
       <c r="V11">
-        <v>0.8251757543825998</v>
+        <v>0.8888530736457808</v>
       </c>
       <c r="W11">
-        <v>0.8251757543825998</v>
+        <v>0.8888530736457808</v>
       </c>
       <c r="X11">
-        <v>0.82893377706594</v>
+        <v>0.8888530736457808</v>
       </c>
       <c r="Y11">
-        <v>0.834270531445448</v>
+        <v>0.8888530736457808</v>
       </c>
       <c r="Z11">
-        <v>0.835190006563038</v>
+        <v>0.8888530736457808</v>
       </c>
       <c r="AA11">
-        <v>0.8461574861867175</v>
+        <v>0.8888530736457808</v>
       </c>
       <c r="AB11">
-        <v>0.8461574861867175</v>
+        <v>0.8888530736457808</v>
       </c>
       <c r="AC11">
-        <v>0.8524172989934845</v>
+        <v>0.8888530736457808</v>
       </c>
       <c r="AD11">
-        <v>0.915237983882871</v>
+        <v>0.9452976966439024</v>
       </c>
       <c r="AE11">
-        <v>0.9770358430989411</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9816713749005082</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9816713749005082</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9816713749005082</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9870282680438959</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.551346550850308</v>
       </c>
       <c r="F2">
-        <v>0.6024622760991801</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>43</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5256916447469451</v>
       </c>
       <c r="F3">
-        <v>0.6542549746034187</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>43</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.7453913309675539</v>
+      </c>
+      <c r="F4">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5595040981298669</v>
-      </c>
       <c r="G4">
+        <v>850</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>43</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5208463180838301</v>
       </c>
       <c r="F5">
-        <v>0.5968311219140445</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>43</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.7273602488921582</v>
+      </c>
+      <c r="F6">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.6073941499185742</v>
-      </c>
       <c r="G6">
+        <v>850</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>43</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5128574678893282</v>
       </c>
       <c r="F7">
-        <v>0.5310496606913679</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>43</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.6563352595940519</v>
+      </c>
+      <c r="F8">
         <v>11</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5481453043042014</v>
-      </c>
       <c r="G8">
+        <v>850</v>
+      </c>
+      <c r="H8">
         <v>9</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>43</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5054223042794533</v>
       </c>
       <c r="F9">
-        <v>0.6528783674558245</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>43</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.5678778470136465</v>
+      </c>
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.538143625543233</v>
-      </c>
       <c r="G10">
+        <v>850</v>
+      </c>
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>43</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5124491738649365</v>
       </c>
       <c r="F11">
-        <v>0.5432111476825925</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>43</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7855198987878887</v>
       </c>
       <c r="F2">
-        <v>0.7377145384008166</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>43</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8249757611988554</v>
       </c>
       <c r="F3">
-        <v>0.7110018256726292</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>43</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7453913309675539</v>
       </c>
       <c r="F4">
-        <v>0.7245002668394426</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>43</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.720396881288215</v>
       </c>
       <c r="F5">
-        <v>0.7098475273965091</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>43</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7273602488921582</v>
       </c>
       <c r="F6">
-        <v>0.7507766599883432</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>43</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7440736639837435</v>
       </c>
       <c r="F7">
-        <v>0.7606021913794883</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>43</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7338568396484364</v>
       </c>
       <c r="F8">
-        <v>0.7088255439950043</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>43</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7026431407923793</v>
       </c>
       <c r="F9">
-        <v>0.7874245636517199</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>43</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.7884296317406039</v>
+      </c>
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7207238423625588</v>
-      </c>
       <c r="G10">
+        <v>850</v>
+      </c>
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>43</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.724425089984552</v>
       </c>
       <c r="F11">
-        <v>0.7026394173416761</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>43</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8408178389038745</v>
       </c>
       <c r="F2">
-        <v>0.8014588349991421</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>43</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8249757611988554</v>
       </c>
       <c r="F3">
-        <v>0.8248799326547017</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>43</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8311645770723928</v>
       </c>
       <c r="F4">
-        <v>0.812184944299068</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>850</v>
       </c>
       <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>43</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8020705146270231</v>
       </c>
       <c r="F5">
-        <v>0.8997372691083163</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>43</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9003925028037603</v>
       </c>
       <c r="F6">
-        <v>0.8273275411579912</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>43</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8280425321431583</v>
       </c>
       <c r="F7">
-        <v>0.8133746661343069</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>43</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.829329138758243</v>
       </c>
       <c r="F8">
-        <v>0.8197485160832133</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>43</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8473239184173172</v>
       </c>
       <c r="F9">
-        <v>0.813786605867889</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>43</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.8803916139986391</v>
+      </c>
+      <c r="F10">
         <v>19</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8220848170822618</v>
-      </c>
       <c r="G10">
+        <v>850</v>
+      </c>
+      <c r="H10">
         <v>18</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>43</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8044146182845583</v>
       </c>
       <c r="F11">
-        <v>0.8115788006503605</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>43</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9077346750165081</v>
       </c>
       <c r="F2">
-        <v>0.9087423390661493</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>43</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9090148004246078</v>
       </c>
       <c r="F3">
-        <v>0.9012657964565257</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>43</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>30</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9400269670382516</v>
-      </c>
       <c r="G4">
+        <v>850</v>
+      </c>
+      <c r="H4">
         <v>28</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>43</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9496869120899114</v>
       </c>
       <c r="F5">
-        <v>0.953483945814064</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>43</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9003925028037603</v>
       </c>
       <c r="F6">
-        <v>0.9235909582041149</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>43</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>29</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9190586486298794</v>
       </c>
       <c r="F7">
-        <v>0.9775706678190272</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>43</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>0.9504439932814334</v>
+      </c>
+      <c r="F8">
         <v>29</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9336010398430014</v>
-      </c>
       <c r="G8">
+        <v>850</v>
+      </c>
+      <c r="H8">
         <v>27</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>43</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>29</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9009442213056018</v>
       </c>
       <c r="F9">
-        <v>0.9962625275107746</v>
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>43</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F10">
         <v>29</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9820692093456137</v>
-      </c>
       <c r="G10">
+        <v>850</v>
+      </c>
+      <c r="H10">
         <v>28</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>43</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>0.9452976966439024</v>
+      </c>
+      <c r="F11">
         <v>29</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.915237983882871</v>
-      </c>
       <c r="G11">
+        <v>850</v>
+      </c>
+      <c r="H11">
         <v>27</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>43</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
